--- a/knps-com/src/main/schema/コード定義.xlsx
+++ b/knps-com/src/main/schema/コード定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\Tools\pleiades-2021-12-java-win-64bit-jre_20220106\pleiades\runtime-Eclipseアプリケーション\knps-com\src\main\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuo\git\emarfkrow\knps-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F0A0C-CEB4-4304-B258-EF222084DB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753112D2-D8A5-4033-9B3F-7B0E228D9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,22 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="297">
   <si>
     <t>コード名称</t>
     <rPh sb="3" eb="5">
@@ -1245,6 +1235,10 @@
     <rPh sb="2" eb="4">
       <t>ヤクショク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_f</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1728,7 +1722,12 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -2099,29 +2098,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B857A-33D2-4FE4-85AC-E39AFEA0E4F0}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K162" sqref="K162:K163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.75" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.125" customWidth="1"/>
-    <col min="11" max="11" width="135.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.08203125" customWidth="1"/>
+    <col min="11" max="11" width="135.58203125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -2166,7 +2165,7 @@
       <c r="I2" s="39"/>
       <c r="K2" s="40"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="14"/>
@@ -2178,16 +2177,16 @@
       <c r="I3" s="5"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C4" s="16">
-        <f>LEN(B4)</f>
+        <f t="shared" ref="C4:C35" si="1">LEN(B4)</f>
         <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2205,20 +2204,20 @@
       <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="K4" s="42" t="str">
-        <f>IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K4:K35" si="2">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE VALUES ('bunkatsu_mail_f', '部署分割送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C5" s="16">
-        <f>LEN(B5)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2234,20 +2233,20 @@
         <v>2</v>
       </c>
       <c r="K5" s="42" t="str">
-        <f>IF(OR(B5="",B5=B4),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B5&amp;"', '"&amp;D5&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E5="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B5&amp;"', '"&amp;E5&amp;"', '"&amp;F5&amp;"', "&amp;G5&amp;", '"&amp;H5&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '1', '部門毎', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C6" s="16">
-        <f>LEN(B6)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -2263,20 +2262,20 @@
         <v>1</v>
       </c>
       <c r="K6" s="42" t="str">
-        <f>IF(OR(B6="",B6=B5),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B6&amp;"', '"&amp;D6&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E6="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B6&amp;"', '"&amp;E6&amp;"', '"&amp;F6&amp;"', "&amp;G6&amp;", '"&amp;H6&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('chumon_mail_f', '注文書送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="16">
-        <f>LEN(B7)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2292,20 +2291,20 @@
         <v>2</v>
       </c>
       <c r="K7" s="42" t="str">
-        <f>IF(OR(B7="",B7=B6),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B7&amp;"', '"&amp;D7&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E7="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B7&amp;"', '"&amp;E7&amp;"', '"&amp;F7&amp;"', "&amp;G7&amp;", '"&amp;H7&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '1', '発注残', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C8" s="16">
-        <f>LEN(B8)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2321,20 +2320,20 @@
         <v>1</v>
       </c>
       <c r="K8" s="42" t="str">
-        <f>IF(OR(B8="",B8=B7),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B8&amp;"', '"&amp;D8&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E8="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B8&amp;"', '"&amp;E8&amp;"', '"&amp;F8&amp;"', "&amp;G8&amp;", '"&amp;H8&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('comp_code', '部署', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '10', '生産管理', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C9" s="16">
-        <f>LEN(B9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2350,20 +2349,20 @@
         <v>2</v>
       </c>
       <c r="K9" s="42" t="str">
-        <f>IF(OR(B9="",B9=B8),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B9&amp;"', '"&amp;D9&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E9="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B9&amp;"', '"&amp;E9&amp;"', '"&amp;F9&amp;"', "&amp;G9&amp;", '"&amp;H9&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '15', '生管役職', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="16">
-        <f>LEN(B10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2379,20 +2378,20 @@
         <v>3</v>
       </c>
       <c r="K10" s="42" t="str">
-        <f>IF(OR(B10="",B10=B9),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B10&amp;"', '"&amp;D10&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E10="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B10&amp;"', '"&amp;E10&amp;"', '"&amp;F10&amp;"', "&amp;G10&amp;", '"&amp;H10&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '20', '購買', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C11" s="16">
-        <f>LEN(B11)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2408,20 +2407,20 @@
         <v>4</v>
       </c>
       <c r="K11" s="42" t="str">
-        <f>IF(OR(B11="",B11=B10),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B11&amp;"', '"&amp;D11&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E11="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B11&amp;"', '"&amp;E11&amp;"', '"&amp;F11&amp;"', "&amp;G11&amp;", '"&amp;H11&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '25', '検査', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="16">
-        <f>LEN(B12)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2437,20 +2436,20 @@
         <v>5</v>
       </c>
       <c r="K12" s="42" t="str">
-        <f>IF(OR(B12="",B12=B11),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B12&amp;"', '"&amp;D12&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E12="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B12&amp;"', '"&amp;E12&amp;"', '"&amp;F12&amp;"', "&amp;G12&amp;", '"&amp;H12&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '30', '製造', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C13" s="16">
-        <f>LEN(B13)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -2466,20 +2465,20 @@
         <v>6</v>
       </c>
       <c r="K13" s="42" t="str">
-        <f>IF(OR(B13="",B13=B12),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B13&amp;"', '"&amp;D13&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E13="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B13&amp;"', '"&amp;E13&amp;"', '"&amp;F13&amp;"', "&amp;G13&amp;", '"&amp;H13&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '35', '経理', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C14" s="16">
-        <f>LEN(B14)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -2495,20 +2494,20 @@
         <v>7</v>
       </c>
       <c r="K14" s="42" t="str">
-        <f>IF(OR(B14="",B14=B13),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B14&amp;"', '"&amp;D14&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E14="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B14&amp;"', '"&amp;E14&amp;"', '"&amp;F14&amp;"', "&amp;G14&amp;", '"&amp;H14&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '40', '営業', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C15" s="16">
-        <f>LEN(B15)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2524,20 +2523,20 @@
         <v>8</v>
       </c>
       <c r="K15" s="42" t="str">
-        <f>IF(OR(B15="",B15=B14),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B15&amp;"', '"&amp;D15&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E15="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B15&amp;"', '"&amp;E15&amp;"', '"&amp;F15&amp;"', "&amp;G15&amp;", '"&amp;H15&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '50', '生産技術', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C16" s="16">
-        <f>LEN(B16)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2553,20 +2552,20 @@
         <v>9</v>
       </c>
       <c r="K16" s="42" t="str">
-        <f>IF(OR(B16="",B16=B15),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B16&amp;"', '"&amp;D16&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E16="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B16&amp;"', '"&amp;E16&amp;"', '"&amp;F16&amp;"', "&amp;G16&amp;", '"&amp;H16&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '80', 'その他', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="16">
-        <f>LEN(B17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2582,20 +2581,20 @@
         <v>10</v>
       </c>
       <c r="K17" s="42" t="str">
-        <f>IF(OR(B17="",B17=B16),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B17&amp;"', '"&amp;D17&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E17="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B17&amp;"', '"&amp;E17&amp;"', '"&amp;F17&amp;"', "&amp;G17&amp;", '"&amp;H17&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '85', '一般役職', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C18" s="16">
-        <f>LEN(B18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2611,20 +2610,20 @@
         <v>11</v>
       </c>
       <c r="K18" s="42" t="str">
-        <f>IF(OR(B18="",B18=B17),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B18&amp;"', '"&amp;D18&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E18="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B18&amp;"', '"&amp;E18&amp;"', '"&amp;F18&amp;"', "&amp;G18&amp;", '"&amp;H18&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '99', 'システム管理', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="18">
-        <f>LEN(B19)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2640,20 +2639,20 @@
         <v>1</v>
       </c>
       <c r="K19" s="42" t="str">
-        <f>IF(OR(B19="",B19=B18),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B19&amp;"', '"&amp;D19&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E19="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B19&amp;"', '"&amp;E19&amp;"', '"&amp;F19&amp;"', "&amp;G19&amp;", '"&amp;H19&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('cost_amount_kbn', '原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="18">
-        <f>LEN(B20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2669,20 +2668,20 @@
         <v>2</v>
       </c>
       <c r="K20" s="42" t="str">
-        <f>IF(OR(B20="",B20=B19),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B20&amp;"', '"&amp;D20&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E20="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B20&amp;"', '"&amp;E20&amp;"', '"&amp;F20&amp;"', "&amp;G20&amp;", '"&amp;H20&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>281</v>
       </c>
       <c r="C21" s="16">
-        <f>LEN(B21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -2698,20 +2697,20 @@
         <v>1</v>
       </c>
       <c r="K21" s="42" t="str">
-        <f>IF(OR(B21="",B21=B20),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B21&amp;"', '"&amp;D21&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E21="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B21&amp;"', '"&amp;E21&amp;"', '"&amp;F21&amp;"', "&amp;G21&amp;", '"&amp;H21&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('delete_flag', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>281</v>
       </c>
       <c r="C22" s="16">
-        <f>LEN(B22)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -2727,20 +2726,20 @@
         <v>2</v>
       </c>
       <c r="K22" s="42" t="str">
-        <f>IF(OR(B22="",B22=B21),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B22&amp;"', '"&amp;D22&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E22="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B22&amp;"', '"&amp;E22&amp;"', '"&amp;F22&amp;"', "&amp;G22&amp;", '"&amp;H22&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="18">
-        <f>LEN(B23)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -2758,20 +2757,20 @@
       <c r="H23" s="32"/>
       <c r="I23" s="7"/>
       <c r="K23" s="42" t="str">
-        <f>IF(OR(B23="",B23=B22),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B23&amp;"', '"&amp;D23&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E23="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B23&amp;"', '"&amp;E23&amp;"', '"&amp;F23&amp;"', "&amp;G23&amp;", '"&amp;H23&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('f_cost_amount_kbn', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="18">
-        <f>LEN(B24)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2789,20 +2788,20 @@
       <c r="H24" s="32"/>
       <c r="I24" s="7"/>
       <c r="K24" s="42" t="str">
-        <f>IF(OR(B24="",B24=B23),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B24&amp;"', '"&amp;D24&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E24="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B24&amp;"', '"&amp;E24&amp;"', '"&amp;F24&amp;"', "&amp;G24&amp;", '"&amp;H24&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="16">
-        <f>LEN(B25)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -2818,20 +2817,20 @@
         <v>1</v>
       </c>
       <c r="K25" s="42" t="str">
-        <f>IF(OR(B25="",B25=B24),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B25&amp;"', '"&amp;D25&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E25="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B25&amp;"', '"&amp;E25&amp;"', '"&amp;F25&amp;"', "&amp;G25&amp;", '"&amp;H25&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('fraction_kbn', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C26" s="16">
-        <f>LEN(B26)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2847,20 +2846,20 @@
         <v>2</v>
       </c>
       <c r="K26" s="42" t="str">
-        <f>IF(OR(B26="",B26=B25),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B26&amp;"', '"&amp;D26&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E26="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B26&amp;"', '"&amp;E26&amp;"', '"&amp;F26&amp;"', "&amp;G26&amp;", '"&amp;H26&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="16">
-        <f>LEN(B27)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2876,20 +2875,20 @@
         <v>3</v>
       </c>
       <c r="K27" s="42" t="str">
-        <f>IF(OR(B27="",B27=B26),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B27&amp;"', '"&amp;D27&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E27="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B27&amp;"', '"&amp;E27&amp;"', '"&amp;F27&amp;"', "&amp;G27&amp;", '"&amp;H27&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="16">
-        <f>LEN(B28)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -2905,20 +2904,20 @@
         <v>1</v>
       </c>
       <c r="K28" s="42" t="str">
-        <f>IF(OR(B28="",B28=B27),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B28&amp;"', '"&amp;D28&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E28="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B28&amp;"', '"&amp;E28&amp;"', '"&amp;F28&amp;"', "&amp;G28&amp;", '"&amp;H28&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('gaika_kb', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="16">
-        <f>LEN(B29)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2934,20 +2933,20 @@
         <v>2</v>
       </c>
       <c r="K29" s="42" t="str">
-        <f>IF(OR(B29="",B29=B28),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B29&amp;"', '"&amp;D29&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E29="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B29&amp;"', '"&amp;E29&amp;"', '"&amp;F29&amp;"', "&amp;G29&amp;", '"&amp;H29&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="16">
-        <f>LEN(B30)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -2963,20 +2962,20 @@
         <v>3</v>
       </c>
       <c r="K30" s="42" t="str">
-        <f>IF(OR(B30="",B30=B29),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B30&amp;"', '"&amp;D30&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E30="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B30&amp;"', '"&amp;E30&amp;"', '"&amp;F30&amp;"', "&amp;G30&amp;", '"&amp;H30&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="16">
-        <f>LEN(B31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -2992,20 +2991,20 @@
         <v>4</v>
       </c>
       <c r="K31" s="42" t="str">
-        <f>IF(OR(B31="",B31=B30),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B31&amp;"', '"&amp;D31&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E31="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B31&amp;"', '"&amp;E31&amp;"', '"&amp;F31&amp;"', "&amp;G31&amp;", '"&amp;H31&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="16">
-        <f>LEN(B32)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -3021,20 +3020,20 @@
         <v>5</v>
       </c>
       <c r="K32" s="42" t="str">
-        <f>IF(OR(B32="",B32=B31),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B32&amp;"', '"&amp;D32&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E32="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B32&amp;"', '"&amp;E32&amp;"', '"&amp;F32&amp;"', "&amp;G32&amp;", '"&amp;H32&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C33" s="16">
-        <f>LEN(B33)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3050,20 +3049,20 @@
         <v>1</v>
       </c>
       <c r="K33" s="42" t="str">
-        <f>IF(OR(B33="",B33=B32),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B33&amp;"', '"&amp;D33&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E33="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B33&amp;"', '"&amp;E33&amp;"', '"&amp;F33&amp;"', "&amp;G33&amp;", '"&amp;H33&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE VALUES ('hingun_kbn', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C34" s="16">
-        <f>LEN(B34)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -3079,20 +3078,20 @@
         <v>2</v>
       </c>
       <c r="K34" s="42" t="str">
-        <f>IF(OR(B34="",B34=B33),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B34&amp;"', '"&amp;D34&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E34="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B34&amp;"', '"&amp;E34&amp;"', '"&amp;F34&amp;"', "&amp;G34&amp;", '"&amp;H34&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C35" s="16">
-        <f>LEN(B35)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -3108,20 +3107,20 @@
         <v>3</v>
       </c>
       <c r="K35" s="42" t="str">
-        <f>IF(OR(B35="",B35=B34),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B35&amp;"', '"&amp;D35&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E35="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B35&amp;"', '"&amp;E35&amp;"', '"&amp;F35&amp;"', "&amp;G35&amp;", '"&amp;H35&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A36:A67" si="3">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C36" s="16">
-        <f>LEN(B36)</f>
+        <f t="shared" ref="C36:C67" si="4">LEN(B36)</f>
         <v>10</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3137,20 +3136,20 @@
         <v>4</v>
       </c>
       <c r="K36" s="42" t="str">
-        <f>IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K36:K67" si="5">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C37" s="16">
-        <f>LEN(B37)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -3166,20 +3165,20 @@
         <v>5</v>
       </c>
       <c r="K37" s="42" t="str">
-        <f>IF(OR(B37="",B37=B36),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B37&amp;"', '"&amp;D37&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E37="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B37&amp;"', '"&amp;E37&amp;"', '"&amp;F37&amp;"', "&amp;G37&amp;", '"&amp;H37&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C38" s="16">
-        <f>LEN(B38)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -3195,20 +3194,20 @@
         <v>6</v>
       </c>
       <c r="K38" s="42" t="str">
-        <f>IF(OR(B38="",B38=B37),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B38&amp;"', '"&amp;D38&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E38="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B38&amp;"', '"&amp;E38&amp;"', '"&amp;F38&amp;"', "&amp;G38&amp;", '"&amp;H38&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="16">
-        <f>LEN(B39)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3224,20 +3223,20 @@
         <v>7</v>
       </c>
       <c r="K39" s="42" t="str">
-        <f>IF(OR(B39="",B39=B38),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B39&amp;"', '"&amp;D39&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E39="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B39&amp;"', '"&amp;E39&amp;"', '"&amp;F39&amp;"', "&amp;G39&amp;", '"&amp;H39&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C40" s="16">
-        <f>LEN(B40)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -3253,20 +3252,20 @@
         <v>8</v>
       </c>
       <c r="K40" s="42" t="str">
-        <f>IF(OR(B40="",B40=B39),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B40&amp;"', '"&amp;D40&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E40="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B40&amp;"', '"&amp;E40&amp;"', '"&amp;F40&amp;"', "&amp;G40&amp;", '"&amp;H40&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C41" s="16">
-        <f>LEN(B41)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -3282,20 +3281,20 @@
         <v>9</v>
       </c>
       <c r="K41" s="42" t="str">
-        <f>IF(OR(B41="",B41=B40),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B41&amp;"', '"&amp;D41&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E41="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B41&amp;"', '"&amp;E41&amp;"', '"&amp;F41&amp;"', "&amp;G41&amp;", '"&amp;H41&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C42" s="16">
-        <f>LEN(B42)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -3311,20 +3310,20 @@
         <v>10</v>
       </c>
       <c r="K42" s="42" t="str">
-        <f>IF(OR(B42="",B42=B41),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B42&amp;"', '"&amp;D42&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E42="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B42&amp;"', '"&amp;E42&amp;"', '"&amp;F42&amp;"', "&amp;G42&amp;", '"&amp;H42&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C43" s="16">
-        <f>LEN(B43)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -3340,20 +3339,20 @@
         <v>11</v>
       </c>
       <c r="K43" s="42" t="str">
-        <f>IF(OR(B43="",B43=B42),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B43&amp;"', '"&amp;D43&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E43="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B43&amp;"', '"&amp;E43&amp;"', '"&amp;F43&amp;"', "&amp;G43&amp;", '"&amp;H43&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C44" s="16">
-        <f>LEN(B44)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3369,20 +3368,20 @@
         <v>12</v>
       </c>
       <c r="K44" s="42" t="str">
-        <f>IF(OR(B44="",B44=B43),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B44&amp;"', '"&amp;D44&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E44="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B44&amp;"', '"&amp;E44&amp;"', '"&amp;F44&amp;"', "&amp;G44&amp;", '"&amp;H44&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C45" s="16">
-        <f>LEN(B45)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -3398,20 +3397,20 @@
         <v>13</v>
       </c>
       <c r="K45" s="42" t="str">
-        <f>IF(OR(B45="",B45=B44),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B45&amp;"', '"&amp;D45&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E45="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B45&amp;"', '"&amp;E45&amp;"', '"&amp;F45&amp;"', "&amp;G45&amp;", '"&amp;H45&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C46" s="16">
-        <f>LEN(B46)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -3427,20 +3426,20 @@
         <v>14</v>
       </c>
       <c r="K46" s="42" t="str">
-        <f>IF(OR(B46="",B46=B45),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B46&amp;"', '"&amp;D46&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E46="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B46&amp;"', '"&amp;E46&amp;"', '"&amp;F46&amp;"', "&amp;G46&amp;", '"&amp;H46&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C47" s="16">
-        <f>LEN(B47)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -3456,20 +3455,20 @@
         <v>15</v>
       </c>
       <c r="K47" s="42" t="str">
-        <f>IF(OR(B47="",B47=B46),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B47&amp;"', '"&amp;D47&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E47="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B47&amp;"', '"&amp;E47&amp;"', '"&amp;F47&amp;"', "&amp;G47&amp;", '"&amp;H47&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C48" s="16">
-        <f>LEN(B48)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3485,20 +3484,20 @@
         <v>16</v>
       </c>
       <c r="K48" s="42" t="str">
-        <f>IF(OR(B48="",B48=B47),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B48&amp;"', '"&amp;D48&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E48="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B48&amp;"', '"&amp;E48&amp;"', '"&amp;F48&amp;"', "&amp;G48&amp;", '"&amp;H48&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C49" s="16">
-        <f>LEN(B49)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -3514,20 +3513,20 @@
         <v>17</v>
       </c>
       <c r="K49" s="42" t="str">
-        <f>IF(OR(B49="",B49=B48),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B49&amp;"', '"&amp;D49&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E49="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B49&amp;"', '"&amp;E49&amp;"', '"&amp;F49&amp;"', "&amp;G49&amp;", '"&amp;H49&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C50" s="16">
-        <f>LEN(B50)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -3543,20 +3542,20 @@
         <v>18</v>
       </c>
       <c r="K50" s="42" t="str">
-        <f>IF(OR(B50="",B50=B49),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B50&amp;"', '"&amp;D50&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E50="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B50&amp;"', '"&amp;E50&amp;"', '"&amp;F50&amp;"', "&amp;G50&amp;", '"&amp;H50&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C51" s="16">
-        <f>LEN(B51)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -3572,20 +3571,20 @@
         <v>19</v>
       </c>
       <c r="K51" s="42" t="str">
-        <f>IF(OR(B51="",B51=B50),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B51&amp;"', '"&amp;D51&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E51="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B51&amp;"', '"&amp;E51&amp;"', '"&amp;F51&amp;"', "&amp;G51&amp;", '"&amp;H51&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C52" s="16">
-        <f>LEN(B52)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -3601,20 +3600,20 @@
         <v>20</v>
       </c>
       <c r="K52" s="42" t="str">
-        <f>IF(OR(B52="",B52=B51),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B52&amp;"', '"&amp;D52&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E52="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B52&amp;"', '"&amp;E52&amp;"', '"&amp;F52&amp;"', "&amp;G52&amp;", '"&amp;H52&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C53" s="16">
-        <f>LEN(B53)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -3630,20 +3629,20 @@
         <v>21</v>
       </c>
       <c r="K53" s="42" t="str">
-        <f>IF(OR(B53="",B53=B52),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B53&amp;"', '"&amp;D53&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E53="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B53&amp;"', '"&amp;E53&amp;"', '"&amp;F53&amp;"', "&amp;G53&amp;", '"&amp;H53&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C54" s="16">
-        <f>LEN(B54)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -3659,20 +3658,20 @@
         <v>22</v>
       </c>
       <c r="K54" s="42" t="str">
-        <f>IF(OR(B54="",B54=B53),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B54&amp;"', '"&amp;D54&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E54="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B54&amp;"', '"&amp;E54&amp;"', '"&amp;F54&amp;"', "&amp;G54&amp;", '"&amp;H54&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C55" s="16">
-        <f>LEN(B55)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -3688,20 +3687,20 @@
         <v>23</v>
       </c>
       <c r="K55" s="42" t="str">
-        <f>IF(OR(B55="",B55=B54),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B55&amp;"', '"&amp;D55&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E55="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B55&amp;"', '"&amp;E55&amp;"', '"&amp;F55&amp;"', "&amp;G55&amp;", '"&amp;H55&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C56" s="16">
-        <f>LEN(B56)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -3717,20 +3716,20 @@
         <v>24</v>
       </c>
       <c r="K56" s="42" t="str">
-        <f>IF(OR(B56="",B56=B55),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B56&amp;"', '"&amp;D56&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E56="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B56&amp;"', '"&amp;E56&amp;"', '"&amp;F56&amp;"', "&amp;G56&amp;", '"&amp;H56&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C57" s="16">
-        <f>LEN(B57)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -3746,20 +3745,20 @@
         <v>25</v>
       </c>
       <c r="K57" s="42" t="str">
-        <f>IF(OR(B57="",B57=B56),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B57&amp;"', '"&amp;D57&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E57="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B57&amp;"', '"&amp;E57&amp;"', '"&amp;F57&amp;"', "&amp;G57&amp;", '"&amp;H57&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C58" s="16">
-        <f>LEN(B58)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -3775,20 +3774,20 @@
         <v>26</v>
       </c>
       <c r="K58" s="42" t="str">
-        <f>IF(OR(B58="",B58=B57),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B58&amp;"', '"&amp;D58&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E58="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B58&amp;"', '"&amp;E58&amp;"', '"&amp;F58&amp;"', "&amp;G58&amp;", '"&amp;H58&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C59" s="16">
-        <f>LEN(B59)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -3804,20 +3803,20 @@
         <v>27</v>
       </c>
       <c r="K59" s="42" t="str">
-        <f>IF(OR(B59="",B59=B58),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B59&amp;"', '"&amp;D59&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E59="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B59&amp;"', '"&amp;E59&amp;"', '"&amp;F59&amp;"', "&amp;G59&amp;", '"&amp;H59&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C60" s="16">
-        <f>LEN(B60)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -3833,20 +3832,20 @@
         <v>28</v>
       </c>
       <c r="K60" s="42" t="str">
-        <f>IF(OR(B60="",B60=B59),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B60&amp;"', '"&amp;D60&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E60="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B60&amp;"', '"&amp;E60&amp;"', '"&amp;F60&amp;"', "&amp;G60&amp;", '"&amp;H60&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C61" s="16">
-        <f>LEN(B61)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -3862,20 +3861,20 @@
         <v>29</v>
       </c>
       <c r="K61" s="42" t="str">
-        <f>IF(OR(B61="",B61=B60),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B61&amp;"', '"&amp;D61&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E61="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B61&amp;"', '"&amp;E61&amp;"', '"&amp;F61&amp;"', "&amp;G61&amp;", '"&amp;H61&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C62" s="16">
-        <f>LEN(B62)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -3891,20 +3890,20 @@
         <v>30</v>
       </c>
       <c r="K62" s="42" t="str">
-        <f>IF(OR(B62="",B62=B61),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B62&amp;"', '"&amp;D62&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E62="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B62&amp;"', '"&amp;E62&amp;"', '"&amp;F62&amp;"', "&amp;G62&amp;", '"&amp;H62&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C63" s="16">
-        <f>LEN(B63)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -3920,20 +3919,20 @@
         <v>31</v>
       </c>
       <c r="K63" s="42" t="str">
-        <f>IF(OR(B63="",B63=B62),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B63&amp;"', '"&amp;D63&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E63="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B63&amp;"', '"&amp;E63&amp;"', '"&amp;F63&amp;"', "&amp;G63&amp;", '"&amp;H63&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C64" s="16">
-        <f>LEN(B64)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -3949,20 +3948,20 @@
         <v>32</v>
       </c>
       <c r="K64" s="42" t="str">
-        <f>IF(OR(B64="",B64=B63),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B64&amp;"', '"&amp;D64&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E64="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B64&amp;"', '"&amp;E64&amp;"', '"&amp;F64&amp;"', "&amp;G64&amp;", '"&amp;H64&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C65" s="16">
-        <f>LEN(B65)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -3978,20 +3977,20 @@
         <v>33</v>
       </c>
       <c r="K65" s="42" t="str">
-        <f>IF(OR(B65="",B65=B64),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B65&amp;"', '"&amp;D65&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E65="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B65&amp;"', '"&amp;E65&amp;"', '"&amp;F65&amp;"', "&amp;G65&amp;", '"&amp;H65&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C66" s="16">
-        <f>LEN(B66)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -4007,20 +4006,20 @@
         <v>34</v>
       </c>
       <c r="K66" s="42" t="str">
-        <f>IF(OR(B66="",B66=B65),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B66&amp;"', '"&amp;D66&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E66="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B66&amp;"', '"&amp;E66&amp;"', '"&amp;F66&amp;"', "&amp;G66&amp;", '"&amp;H66&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C67" s="16">
-        <f>LEN(B67)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -4036,20 +4035,20 @@
         <v>35</v>
       </c>
       <c r="K67" s="42" t="str">
-        <f>IF(OR(B67="",B67=B66),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B67&amp;"', '"&amp;D67&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E67="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B67&amp;"', '"&amp;E67&amp;"', '"&amp;F67&amp;"', "&amp;G67&amp;", '"&amp;H67&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A68:A99" si="6">ROW()-3</f>
         <v>65</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C68" s="16">
-        <f>LEN(B68)</f>
+        <f t="shared" ref="C68:C99" si="7">LEN(B68)</f>
         <v>10</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -4065,20 +4064,20 @@
         <v>36</v>
       </c>
       <c r="K68" s="42" t="str">
-        <f>IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K68:K99" si="8">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C69" s="16">
-        <f>LEN(B69)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D69" s="17" t="s">
@@ -4094,20 +4093,20 @@
         <v>37</v>
       </c>
       <c r="K69" s="42" t="str">
-        <f>IF(OR(B69="",B69=B68),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B69&amp;"', '"&amp;D69&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E69="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B69&amp;"', '"&amp;E69&amp;"', '"&amp;F69&amp;"', "&amp;G69&amp;", '"&amp;H69&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C70" s="16">
-        <f>LEN(B70)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D70" s="17" t="s">
@@ -4123,20 +4122,20 @@
         <v>38</v>
       </c>
       <c r="K70" s="42" t="str">
-        <f>IF(OR(B70="",B70=B69),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B70&amp;"', '"&amp;D70&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E70="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B70&amp;"', '"&amp;E70&amp;"', '"&amp;F70&amp;"', "&amp;G70&amp;", '"&amp;H70&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C71" s="16">
-        <f>LEN(B71)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -4152,20 +4151,20 @@
         <v>39</v>
       </c>
       <c r="K71" s="42" t="str">
-        <f>IF(OR(B71="",B71=B70),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B71&amp;"', '"&amp;D71&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E71="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B71&amp;"', '"&amp;E71&amp;"', '"&amp;F71&amp;"', "&amp;G71&amp;", '"&amp;H71&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C72" s="16">
-        <f>LEN(B72)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D72" s="17" t="s">
@@ -4181,20 +4180,20 @@
         <v>40</v>
       </c>
       <c r="K72" s="42" t="str">
-        <f>IF(OR(B72="",B72=B71),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B72&amp;"', '"&amp;D72&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E72="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B72&amp;"', '"&amp;E72&amp;"', '"&amp;F72&amp;"', "&amp;G72&amp;", '"&amp;H72&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C73" s="16">
-        <f>LEN(B73)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -4210,20 +4209,20 @@
         <v>41</v>
       </c>
       <c r="K73" s="42" t="str">
-        <f>IF(OR(B73="",B73=B72),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B73&amp;"', '"&amp;D73&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E73="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B73&amp;"', '"&amp;E73&amp;"', '"&amp;F73&amp;"', "&amp;G73&amp;", '"&amp;H73&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C74" s="16">
-        <f>LEN(B74)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D74" s="17" t="s">
@@ -4239,20 +4238,20 @@
         <v>42</v>
       </c>
       <c r="K74" s="42" t="str">
-        <f>IF(OR(B74="",B74=B73),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B74&amp;"', '"&amp;D74&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E74="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B74&amp;"', '"&amp;E74&amp;"', '"&amp;F74&amp;"', "&amp;G74&amp;", '"&amp;H74&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="16">
-        <f>LEN(B75)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -4268,20 +4267,20 @@
         <v>43</v>
       </c>
       <c r="K75" s="42" t="str">
-        <f>IF(OR(B75="",B75=B74),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B75&amp;"', '"&amp;D75&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E75="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B75&amp;"', '"&amp;E75&amp;"', '"&amp;F75&amp;"', "&amp;G75&amp;", '"&amp;H75&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C76" s="16">
-        <f>LEN(B76)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -4297,20 +4296,20 @@
         <v>44</v>
       </c>
       <c r="K76" s="42" t="str">
-        <f>IF(OR(B76="",B76=B75),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B76&amp;"', '"&amp;D76&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E76="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B76&amp;"', '"&amp;E76&amp;"', '"&amp;F76&amp;"', "&amp;G76&amp;", '"&amp;H76&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="16">
-        <f>LEN(B77)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -4326,20 +4325,20 @@
         <v>45</v>
       </c>
       <c r="K77" s="42" t="str">
-        <f>IF(OR(B77="",B77=B76),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B77&amp;"', '"&amp;D77&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E77="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B77&amp;"', '"&amp;E77&amp;"', '"&amp;F77&amp;"', "&amp;G77&amp;", '"&amp;H77&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C78" s="16">
-        <f>LEN(B78)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D78" s="17" t="s">
@@ -4355,20 +4354,20 @@
         <v>46</v>
       </c>
       <c r="K78" s="42" t="str">
-        <f>IF(OR(B78="",B78=B77),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B78&amp;"', '"&amp;D78&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E78="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B78&amp;"', '"&amp;E78&amp;"', '"&amp;F78&amp;"', "&amp;G78&amp;", '"&amp;H78&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C79" s="16">
-        <f>LEN(B79)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D79" s="17" t="s">
@@ -4384,20 +4383,20 @@
         <v>47</v>
       </c>
       <c r="K79" s="42" t="str">
-        <f>IF(OR(B79="",B79=B78),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B79&amp;"', '"&amp;D79&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E79="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B79&amp;"', '"&amp;E79&amp;"', '"&amp;F79&amp;"', "&amp;G79&amp;", '"&amp;H79&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C80" s="16">
-        <f>LEN(B80)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D80" s="17" t="s">
@@ -4413,20 +4412,20 @@
         <v>48</v>
       </c>
       <c r="K80" s="42" t="str">
-        <f>IF(OR(B80="",B80=B79),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B80&amp;"', '"&amp;D80&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E80="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B80&amp;"', '"&amp;E80&amp;"', '"&amp;F80&amp;"', "&amp;G80&amp;", '"&amp;H80&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C81" s="16">
-        <f>LEN(B81)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D81" s="17" t="s">
@@ -4442,20 +4441,20 @@
         <v>49</v>
       </c>
       <c r="K81" s="42" t="str">
-        <f>IF(OR(B81="",B81=B80),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B81&amp;"', '"&amp;D81&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E81="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B81&amp;"', '"&amp;E81&amp;"', '"&amp;F81&amp;"', "&amp;G81&amp;", '"&amp;H81&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C82" s="16">
-        <f>LEN(B82)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -4473,20 +4472,20 @@
       <c r="H82" s="28"/>
       <c r="I82" s="2"/>
       <c r="K82" s="42" t="str">
-        <f>IF(OR(B82="",B82=B81),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B82&amp;"', '"&amp;D82&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E82="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B82&amp;"', '"&amp;E82&amp;"', '"&amp;F82&amp;"', "&amp;G82&amp;", '"&amp;H82&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C83" s="16">
-        <f>LEN(B83)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D83" s="17" t="s">
@@ -4502,20 +4501,20 @@
         <v>51</v>
       </c>
       <c r="K83" s="42" t="str">
-        <f>IF(OR(B83="",B83=B82),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B83&amp;"', '"&amp;D83&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E83="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B83&amp;"', '"&amp;E83&amp;"', '"&amp;F83&amp;"', "&amp;G83&amp;", '"&amp;H83&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C84" s="16">
-        <f>LEN(B84)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D84" s="17" t="s">
@@ -4531,20 +4530,20 @@
         <v>52</v>
       </c>
       <c r="K84" s="42" t="str">
-        <f>IF(OR(B84="",B84=B83),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B84&amp;"', '"&amp;D84&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E84="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B84&amp;"', '"&amp;E84&amp;"', '"&amp;F84&amp;"', "&amp;G84&amp;", '"&amp;H84&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C85" s="16">
-        <f>LEN(B85)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
@@ -4560,20 +4559,20 @@
         <v>53</v>
       </c>
       <c r="K85" s="42" t="str">
-        <f>IF(OR(B85="",B85=B84),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B85&amp;"', '"&amp;D85&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E85="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B85&amp;"', '"&amp;E85&amp;"', '"&amp;F85&amp;"', "&amp;G85&amp;", '"&amp;H85&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C86" s="16">
-        <f>LEN(B86)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D86" s="17" t="s">
@@ -4589,20 +4588,20 @@
         <v>54</v>
       </c>
       <c r="K86" s="42" t="str">
-        <f>IF(OR(B86="",B86=B85),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B86&amp;"', '"&amp;D86&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E86="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B86&amp;"', '"&amp;E86&amp;"', '"&amp;F86&amp;"', "&amp;G86&amp;", '"&amp;H86&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C87" s="16">
-        <f>LEN(B87)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D87" s="17" t="s">
@@ -4618,20 +4617,20 @@
         <v>55</v>
       </c>
       <c r="K87" s="42" t="str">
-        <f>IF(OR(B87="",B87=B86),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B87&amp;"', '"&amp;D87&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E87="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B87&amp;"', '"&amp;E87&amp;"', '"&amp;F87&amp;"', "&amp;G87&amp;", '"&amp;H87&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C88" s="16">
-        <f>LEN(B88)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -4647,20 +4646,20 @@
         <v>56</v>
       </c>
       <c r="K88" s="42" t="str">
-        <f>IF(OR(B88="",B88=B87),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B88&amp;"', '"&amp;D88&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E88="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B88&amp;"', '"&amp;E88&amp;"', '"&amp;F88&amp;"', "&amp;G88&amp;", '"&amp;H88&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C89" s="16">
-        <f>LEN(B89)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D89" s="17" t="s">
@@ -4676,20 +4675,20 @@
         <v>57</v>
       </c>
       <c r="K89" s="42" t="str">
-        <f>IF(OR(B89="",B89=B88),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B89&amp;"', '"&amp;D89&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E89="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B89&amp;"', '"&amp;E89&amp;"', '"&amp;F89&amp;"', "&amp;G89&amp;", '"&amp;H89&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C90" s="16">
-        <f>LEN(B90)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D90" s="17" t="s">
@@ -4705,20 +4704,20 @@
         <v>58</v>
       </c>
       <c r="K90" s="42" t="str">
-        <f>IF(OR(B90="",B90=B89),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B90&amp;"', '"&amp;D90&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E90="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B90&amp;"', '"&amp;E90&amp;"', '"&amp;F90&amp;"', "&amp;G90&amp;", '"&amp;H90&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C91" s="16">
-        <f>LEN(B91)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -4734,20 +4733,20 @@
         <v>59</v>
       </c>
       <c r="K91" s="42" t="str">
-        <f>IF(OR(B91="",B91=B90),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B91&amp;"', '"&amp;D91&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E91="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B91&amp;"', '"&amp;E91&amp;"', '"&amp;F91&amp;"', "&amp;G91&amp;", '"&amp;H91&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C92" s="16">
-        <f>LEN(B92)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -4763,20 +4762,20 @@
         <v>60</v>
       </c>
       <c r="K92" s="42" t="str">
-        <f>IF(OR(B92="",B92=B91),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B92&amp;"', '"&amp;D92&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E92="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B92&amp;"', '"&amp;E92&amp;"', '"&amp;F92&amp;"', "&amp;G92&amp;", '"&amp;H92&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C93" s="16">
-        <f>LEN(B93)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -4792,20 +4791,20 @@
         <v>61</v>
       </c>
       <c r="K93" s="42" t="str">
-        <f>IF(OR(B93="",B93=B92),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B93&amp;"', '"&amp;D93&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E93="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B93&amp;"', '"&amp;E93&amp;"', '"&amp;F93&amp;"', "&amp;G93&amp;", '"&amp;H93&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C94" s="16">
-        <f>LEN(B94)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -4821,20 +4820,20 @@
         <v>62</v>
       </c>
       <c r="K94" s="42" t="str">
-        <f>IF(OR(B94="",B94=B93),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B94&amp;"', '"&amp;D94&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E94="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B94&amp;"', '"&amp;E94&amp;"', '"&amp;F94&amp;"', "&amp;G94&amp;", '"&amp;H94&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C95" s="16">
-        <f>LEN(B95)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D95" s="17" t="s">
@@ -4850,20 +4849,20 @@
         <v>63</v>
       </c>
       <c r="K95" s="42" t="str">
-        <f>IF(OR(B95="",B95=B94),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B95&amp;"', '"&amp;D95&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E95="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B95&amp;"', '"&amp;E95&amp;"', '"&amp;F95&amp;"', "&amp;G95&amp;", '"&amp;H95&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C96" s="16">
-        <f>LEN(B96)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D96" s="17" t="s">
@@ -4879,20 +4878,20 @@
         <v>64</v>
       </c>
       <c r="K96" s="42" t="str">
-        <f>IF(OR(B96="",B96=B95),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B96&amp;"', '"&amp;D96&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E96="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B96&amp;"', '"&amp;E96&amp;"', '"&amp;F96&amp;"', "&amp;G96&amp;", '"&amp;H96&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C97" s="16">
-        <f>LEN(B97)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -4908,20 +4907,20 @@
         <v>65</v>
       </c>
       <c r="K97" s="42" t="str">
-        <f>IF(OR(B97="",B97=B96),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B97&amp;"', '"&amp;D97&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E97="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B97&amp;"', '"&amp;E97&amp;"', '"&amp;F97&amp;"', "&amp;G97&amp;", '"&amp;H97&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C98" s="16">
-        <f>LEN(B98)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -4937,20 +4936,20 @@
         <v>66</v>
       </c>
       <c r="K98" s="42" t="str">
-        <f>IF(OR(B98="",B98=B97),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B98&amp;"', '"&amp;D98&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E98="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B98&amp;"', '"&amp;E98&amp;"', '"&amp;F98&amp;"', "&amp;G98&amp;", '"&amp;H98&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C99" s="16">
-        <f>LEN(B99)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -4966,20 +4965,20 @@
         <v>67</v>
       </c>
       <c r="K99" s="42" t="str">
-        <f>IF(OR(B99="",B99=B98),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B99&amp;"', '"&amp;D99&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E99="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B99&amp;"', '"&amp;E99&amp;"', '"&amp;F99&amp;"', "&amp;G99&amp;", '"&amp;H99&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A100:A131" si="9">ROW()-3</f>
         <v>97</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="16">
-        <f>LEN(B100)</f>
+        <f t="shared" ref="C100:C131" si="10">LEN(B100)</f>
         <v>10</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -4995,20 +4994,20 @@
         <v>68</v>
       </c>
       <c r="K100" s="42" t="str">
-        <f>IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K100:K131" si="11">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C101" s="16">
-        <f>LEN(B101)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D101" s="17" t="s">
@@ -5024,20 +5023,20 @@
         <v>69</v>
       </c>
       <c r="K101" s="42" t="str">
-        <f>IF(OR(B101="",B101=B100),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B101&amp;"', '"&amp;D101&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E101="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B101&amp;"', '"&amp;E101&amp;"', '"&amp;F101&amp;"', "&amp;G101&amp;", '"&amp;H101&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C102" s="16">
-        <f>LEN(B102)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -5053,20 +5052,20 @@
         <v>70</v>
       </c>
       <c r="K102" s="42" t="str">
-        <f>IF(OR(B102="",B102=B101),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B102&amp;"', '"&amp;D102&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E102="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B102&amp;"', '"&amp;E102&amp;"', '"&amp;F102&amp;"', "&amp;G102&amp;", '"&amp;H102&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C103" s="16">
-        <f>LEN(B103)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D103" s="17" t="s">
@@ -5082,20 +5081,20 @@
         <v>71</v>
       </c>
       <c r="K103" s="42" t="str">
-        <f>IF(OR(B103="",B103=B102),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B103&amp;"', '"&amp;D103&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E103="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B103&amp;"', '"&amp;E103&amp;"', '"&amp;F103&amp;"', "&amp;G103&amp;", '"&amp;H103&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C104" s="16">
-        <f>LEN(B104)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D104" s="17" t="s">
@@ -5111,20 +5110,20 @@
         <v>1</v>
       </c>
       <c r="K104" s="42" t="str">
-        <f>IF(OR(B104="",B104=B103),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B104&amp;"', '"&amp;D104&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E104="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B104&amp;"', '"&amp;E104&amp;"', '"&amp;F104&amp;"', "&amp;G104&amp;", '"&amp;H104&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('host_n_kbn', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C105" s="16">
-        <f>LEN(B105)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5140,20 +5139,20 @@
         <v>2</v>
       </c>
       <c r="K105" s="42" t="str">
-        <f>IF(OR(B105="",B105=B104),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B105&amp;"', '"&amp;D105&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E105="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B105&amp;"', '"&amp;E105&amp;"', '"&amp;F105&amp;"', "&amp;G105&amp;", '"&amp;H105&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="16">
-        <f>LEN(B106)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D106" s="17" t="s">
@@ -5169,20 +5168,20 @@
         <v>1</v>
       </c>
       <c r="K106" s="42" t="str">
-        <f>IF(OR(B106="",B106=B105),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B106&amp;"', '"&amp;D106&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E106="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B106&amp;"', '"&amp;E106&amp;"', '"&amp;F106&amp;"', "&amp;G106&amp;", '"&amp;H106&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('item_kbn', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="16">
-        <f>LEN(B107)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D107" s="17" t="s">
@@ -5198,20 +5197,20 @@
         <v>2</v>
       </c>
       <c r="K107" s="42" t="str">
-        <f>IF(OR(B107="",B107=B106),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B107&amp;"', '"&amp;D107&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E107="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B107&amp;"', '"&amp;E107&amp;"', '"&amp;F107&amp;"', "&amp;G107&amp;", '"&amp;H107&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="16">
-        <f>LEN(B108)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D108" s="17" t="s">
@@ -5227,20 +5226,20 @@
         <v>3</v>
       </c>
       <c r="K108" s="42" t="str">
-        <f>IF(OR(B108="",B108=B107),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B108&amp;"', '"&amp;D108&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E108="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B108&amp;"', '"&amp;E108&amp;"', '"&amp;F108&amp;"', "&amp;G108&amp;", '"&amp;H108&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="16">
-        <f>LEN(B109)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D109" s="17" t="s">
@@ -5256,20 +5255,20 @@
         <v>4</v>
       </c>
       <c r="K109" s="42" t="str">
-        <f>IF(OR(B109="",B109=B108),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B109&amp;"', '"&amp;D109&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E109="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B109&amp;"', '"&amp;E109&amp;"', '"&amp;F109&amp;"', "&amp;G109&amp;", '"&amp;H109&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="16">
-        <f>LEN(B110)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D110" s="17" t="s">
@@ -5285,20 +5284,20 @@
         <v>5</v>
       </c>
       <c r="K110" s="42" t="str">
-        <f>IF(OR(B110="",B110=B109),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B110&amp;"', '"&amp;D110&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E110="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B110&amp;"', '"&amp;E110&amp;"', '"&amp;F110&amp;"', "&amp;G110&amp;", '"&amp;H110&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="16">
-        <f>LEN(B111)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D111" s="17" t="s">
@@ -5314,20 +5313,20 @@
         <v>6</v>
       </c>
       <c r="K111" s="42" t="str">
-        <f>IF(OR(B111="",B111=B110),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B111&amp;"', '"&amp;D111&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E111="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B111&amp;"', '"&amp;E111&amp;"', '"&amp;F111&amp;"', "&amp;G111&amp;", '"&amp;H111&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="16">
-        <f>LEN(B112)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D112" s="17" t="s">
@@ -5343,20 +5342,20 @@
         <v>7</v>
       </c>
       <c r="K112" s="42" t="str">
-        <f>IF(OR(B112="",B112=B111),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B112&amp;"', '"&amp;D112&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E112="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B112&amp;"', '"&amp;E112&amp;"', '"&amp;F112&amp;"', "&amp;G112&amp;", '"&amp;H112&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="16">
-        <f>LEN(B113)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
@@ -5372,20 +5371,20 @@
         <v>8</v>
       </c>
       <c r="K113" s="42" t="str">
-        <f>IF(OR(B113="",B113=B112),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B113&amp;"', '"&amp;D113&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E113="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B113&amp;"', '"&amp;E113&amp;"', '"&amp;F113&amp;"', "&amp;G113&amp;", '"&amp;H113&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="16">
-        <f>LEN(B114)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -5401,20 +5400,20 @@
         <v>9</v>
       </c>
       <c r="K114" s="42" t="str">
-        <f>IF(OR(B114="",B114=B113),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B114&amp;"', '"&amp;D114&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E114="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B114&amp;"', '"&amp;E114&amp;"', '"&amp;F114&amp;"', "&amp;G114&amp;", '"&amp;H114&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="16">
-        <f>LEN(B115)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D115" s="17" t="s">
@@ -5430,20 +5429,20 @@
         <v>10</v>
       </c>
       <c r="K115" s="42" t="str">
-        <f>IF(OR(B115="",B115=B114),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B115&amp;"', '"&amp;D115&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E115="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B115&amp;"', '"&amp;E115&amp;"', '"&amp;F115&amp;"', "&amp;G115&amp;", '"&amp;H115&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="16">
-        <f>LEN(B116)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D116" s="17" t="s">
@@ -5459,20 +5458,20 @@
         <v>11</v>
       </c>
       <c r="K116" s="42" t="str">
-        <f>IF(OR(B116="",B116=B115),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B116&amp;"', '"&amp;D116&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E116="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B116&amp;"', '"&amp;E116&amp;"', '"&amp;F116&amp;"', "&amp;G116&amp;", '"&amp;H116&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="16">
-        <f>LEN(B117)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -5488,20 +5487,20 @@
         <v>12</v>
       </c>
       <c r="K117" s="42" t="str">
-        <f>IF(OR(B117="",B117=B116),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B117&amp;"', '"&amp;D117&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E117="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B117&amp;"', '"&amp;E117&amp;"', '"&amp;F117&amp;"', "&amp;G117&amp;", '"&amp;H117&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="16">
-        <f>LEN(B118)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D118" s="17" t="s">
@@ -5517,20 +5516,20 @@
         <v>13</v>
       </c>
       <c r="K118" s="42" t="str">
-        <f>IF(OR(B118="",B118=B117),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B118&amp;"', '"&amp;D118&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E118="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B118&amp;"', '"&amp;E118&amp;"', '"&amp;F118&amp;"', "&amp;G118&amp;", '"&amp;H118&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="16">
-        <f>LEN(B119)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D119" s="17" t="s">
@@ -5546,20 +5545,20 @@
         <v>14</v>
       </c>
       <c r="K119" s="42" t="str">
-        <f>IF(OR(B119="",B119=B118),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B119&amp;"', '"&amp;D119&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E119="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B119&amp;"', '"&amp;E119&amp;"', '"&amp;F119&amp;"', "&amp;G119&amp;", '"&amp;H119&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C120" s="16">
-        <f>LEN(B120)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
@@ -5575,20 +5574,20 @@
         <v>1</v>
       </c>
       <c r="K120" s="42" t="str">
-        <f>IF(OR(B120="",B120=B119),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B120&amp;"', '"&amp;D120&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E120="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B120&amp;"', '"&amp;E120&amp;"', '"&amp;F120&amp;"', "&amp;G120&amp;", '"&amp;H120&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('kenshu_mail_f', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C121" s="16">
-        <f>LEN(B121)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -5604,20 +5603,20 @@
         <v>2</v>
       </c>
       <c r="K121" s="42" t="str">
-        <f>IF(OR(B121="",B121=B120),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B121&amp;"', '"&amp;D121&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E121="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B121&amp;"', '"&amp;E121&amp;"', '"&amp;F121&amp;"', "&amp;G121&amp;", '"&amp;H121&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>237</v>
       </c>
       <c r="C122" s="16">
-        <f>LEN(B122)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D122" s="17" t="s">
@@ -5633,20 +5632,20 @@
         <v>1</v>
       </c>
       <c r="K122" s="42" t="str">
-        <f>IF(OR(B122="",B122=B121),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B122&amp;"', '"&amp;D122&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E122="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B122&amp;"', '"&amp;E122&amp;"', '"&amp;F122&amp;"', "&amp;G122&amp;", '"&amp;H122&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('list_output_kbn', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>237</v>
       </c>
       <c r="C123" s="16">
-        <f>LEN(B123)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D123" s="17" t="s">
@@ -5662,20 +5661,20 @@
         <v>2</v>
       </c>
       <c r="K123" s="42" t="str">
-        <f>IF(OR(B123="",B123=B122),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B123&amp;"', '"&amp;D123&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E123="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B123&amp;"', '"&amp;E123&amp;"', '"&amp;F123&amp;"', "&amp;G123&amp;", '"&amp;H123&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C124" s="16">
-        <f>LEN(B124)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D124" s="17" t="s">
@@ -5691,20 +5690,20 @@
         <v>1</v>
       </c>
       <c r="K124" s="42" t="str">
-        <f>IF(OR(B124="",B124=B123),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B124&amp;"', '"&amp;D124&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E124="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B124&amp;"', '"&amp;E124&amp;"', '"&amp;F124&amp;"', "&amp;G124&amp;", '"&amp;H124&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('mail_bcc_f', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C125" s="16">
-        <f>LEN(B125)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D125" s="17" t="s">
@@ -5720,20 +5719,20 @@
         <v>2</v>
       </c>
       <c r="K125" s="42" t="str">
-        <f>IF(OR(B125="",B125=B124),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B125&amp;"', '"&amp;D125&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E125="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B125&amp;"', '"&amp;E125&amp;"', '"&amp;F125&amp;"', "&amp;G125&amp;", '"&amp;H125&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C126" s="16">
-        <f>LEN(B126)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
@@ -5749,20 +5748,20 @@
         <v>1</v>
       </c>
       <c r="K126" s="42" t="str">
-        <f>IF(OR(B126="",B126=B125),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B126&amp;"', '"&amp;D126&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E126="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B126&amp;"', '"&amp;E126&amp;"', '"&amp;F126&amp;"', "&amp;G126&amp;", '"&amp;H126&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('musho_hacchu_f', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C127" s="16">
-        <f>LEN(B127)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -5778,20 +5777,20 @@
         <v>2</v>
       </c>
       <c r="K127" s="42" t="str">
-        <f>IF(OR(B127="",B127=B126),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B127&amp;"', '"&amp;D127&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E127="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B127&amp;"', '"&amp;E127&amp;"', '"&amp;F127&amp;"', "&amp;G127&amp;", '"&amp;H127&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C128" s="16">
-        <f>LEN(B128)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="D128" s="17" t="s">
@@ -5807,20 +5806,20 @@
         <v>1</v>
       </c>
       <c r="K128" s="42" t="str">
-        <f>IF(OR(B128="",B128=B127),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B128&amp;"', '"&amp;D128&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E128="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B128&amp;"', '"&amp;E128&amp;"', '"&amp;F128&amp;"', "&amp;G128&amp;", '"&amp;H128&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('nohin_send_yohi_kbn', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C129" s="16">
-        <f>LEN(B129)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -5836,20 +5835,20 @@
         <v>2</v>
       </c>
       <c r="K129" s="42" t="str">
-        <f>IF(OR(B129="",B129=B128),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B129&amp;"', '"&amp;D129&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E129="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B129&amp;"', '"&amp;E129&amp;"', '"&amp;F129&amp;"', "&amp;G129&amp;", '"&amp;H129&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C130" s="16">
-        <f>LEN(B130)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="D130" s="17" t="s">
@@ -5865,20 +5864,20 @@
         <v>1</v>
       </c>
       <c r="K130" s="42" t="str">
-        <f>IF(OR(B130="",B130=B129),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B130&amp;"', '"&amp;D130&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E130="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B130&amp;"', '"&amp;E130&amp;"', '"&amp;F130&amp;"', "&amp;G130&amp;", '"&amp;H130&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE VALUES ('order_accept_kbn', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C131" s="16">
-        <f>LEN(B131)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="D131" s="17" t="s">
@@ -5894,20 +5893,20 @@
         <v>2</v>
       </c>
       <c r="K131" s="42" t="str">
-        <f>IF(OR(B131="",B131=B130),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B131&amp;"', '"&amp;D131&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E131="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B131&amp;"', '"&amp;E131&amp;"', '"&amp;F131&amp;"', "&amp;G131&amp;", '"&amp;H131&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A132:A163" si="12">ROW()-3</f>
         <v>129</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C132" s="16">
-        <f>LEN(B132)</f>
+        <f t="shared" ref="C132:C163" si="13">LEN(B132)</f>
         <v>10</v>
       </c>
       <c r="D132" s="17" t="s">
@@ -5923,20 +5922,20 @@
         <v>1</v>
       </c>
       <c r="K132" s="42" t="str">
-        <f>IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K132:K163" si="14">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE VALUES ('poison_kbn', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C133" s="16">
-        <f>LEN(B133)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D133" s="17" t="s">
@@ -5952,20 +5951,20 @@
         <v>2</v>
       </c>
       <c r="K133" s="42" t="str">
-        <f>IF(OR(B133="",B133=B132),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B133&amp;"', '"&amp;D133&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E133="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B133&amp;"', '"&amp;E133&amp;"', '"&amp;F133&amp;"', "&amp;G133&amp;", '"&amp;H133&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C134" s="16">
-        <f>LEN(B134)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D134" s="17" t="s">
@@ -5981,20 +5980,20 @@
         <v>1</v>
       </c>
       <c r="K134" s="42" t="str">
-        <f>IF(OR(B134="",B134=B133),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B134&amp;"', '"&amp;D134&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E134="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B134&amp;"', '"&amp;E134&amp;"', '"&amp;F134&amp;"', "&amp;G134&amp;", '"&amp;H134&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('position', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('position', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C135" s="16">
-        <f>LEN(B135)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D135" s="17" t="s">
@@ -6010,20 +6009,20 @@
         <v>2</v>
       </c>
       <c r="K135" s="42" t="str">
-        <f>IF(OR(B135="",B135=B134),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B135&amp;"', '"&amp;D135&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E135="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B135&amp;"', '"&amp;E135&amp;"', '"&amp;F135&amp;"', "&amp;G135&amp;", '"&amp;H135&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C136" s="16">
-        <f>LEN(B136)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D136" s="17" t="s">
@@ -6039,20 +6038,20 @@
         <v>3</v>
       </c>
       <c r="K136" s="42" t="str">
-        <f>IF(OR(B136="",B136=B135),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B136&amp;"', '"&amp;D136&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E136="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B136&amp;"', '"&amp;E136&amp;"', '"&amp;F136&amp;"', "&amp;G136&amp;", '"&amp;H136&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="16">
-        <f>LEN(B137)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D137" s="17" t="s">
@@ -6068,20 +6067,20 @@
         <v>4</v>
       </c>
       <c r="K137" s="42" t="str">
-        <f>IF(OR(B137="",B137=B136),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B137&amp;"', '"&amp;D137&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E137="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B137&amp;"', '"&amp;E137&amp;"', '"&amp;F137&amp;"', "&amp;G137&amp;", '"&amp;H137&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C138" s="16">
-        <f>LEN(B138)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
@@ -6097,20 +6096,20 @@
         <v>1</v>
       </c>
       <c r="K138" s="42" t="str">
-        <f>IF(OR(B138="",B138=B137),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B138&amp;"', '"&amp;D138&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E138="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B138&amp;"', '"&amp;E138&amp;"', '"&amp;F138&amp;"', "&amp;G138&amp;", '"&amp;H138&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('print_kbn', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C139" s="16">
-        <f>LEN(B139)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
@@ -6126,20 +6125,20 @@
         <v>2</v>
       </c>
       <c r="K139" s="42" t="str">
-        <f>IF(OR(B139="",B139=B138),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B139&amp;"', '"&amp;D139&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E139="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B139&amp;"', '"&amp;E139&amp;"', '"&amp;F139&amp;"', "&amp;G139&amp;", '"&amp;H139&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C140" s="16">
-        <f>LEN(B140)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D140" s="17" t="s">
@@ -6155,20 +6154,20 @@
         <v>1</v>
       </c>
       <c r="K140" s="42" t="str">
-        <f>IF(OR(B140="",B140=B139),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B140&amp;"', '"&amp;D140&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E140="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B140&amp;"', '"&amp;E140&amp;"', '"&amp;F140&amp;"', "&amp;G140&amp;", '"&amp;H140&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('rest_article_kbn', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C141" s="16">
-        <f>LEN(B141)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D141" s="17" t="s">
@@ -6184,20 +6183,20 @@
         <v>2</v>
       </c>
       <c r="K141" s="42" t="str">
-        <f>IF(OR(B141="",B141=B140),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B141&amp;"', '"&amp;D141&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E141="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B141&amp;"', '"&amp;E141&amp;"', '"&amp;F141&amp;"', "&amp;G141&amp;", '"&amp;H141&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C142" s="18">
-        <f>LEN(B142)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="D142" s="19" t="s">
@@ -6213,20 +6212,20 @@
         <v>1</v>
       </c>
       <c r="K142" s="42" t="str">
-        <f>IF(OR(B142="",B142=B141),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B142&amp;"', '"&amp;D142&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E142="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B142&amp;"', '"&amp;E142&amp;"', '"&amp;F142&amp;"', "&amp;G142&amp;", '"&amp;H142&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('s_cost_amount_kbn', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C143" s="18">
-        <f>LEN(B143)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="D143" s="19" t="s">
@@ -6242,20 +6241,20 @@
         <v>2</v>
       </c>
       <c r="K143" s="42" t="str">
-        <f>IF(OR(B143="",B143=B142),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B143&amp;"', '"&amp;D143&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E143="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B143&amp;"', '"&amp;E143&amp;"', '"&amp;F143&amp;"', "&amp;G143&amp;", '"&amp;H143&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>241</v>
       </c>
       <c r="C144" s="16">
-        <f>LEN(B144)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -6271,20 +6270,20 @@
         <v>1</v>
       </c>
       <c r="K144" s="42" t="str">
-        <f>IF(OR(B144="",B144=B143),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B144&amp;"', '"&amp;D144&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E144="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B144&amp;"', '"&amp;E144&amp;"', '"&amp;F144&amp;"', "&amp;G144&amp;", '"&amp;H144&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('send_sup_kbn', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>241</v>
       </c>
       <c r="C145" s="16">
-        <f>LEN(B145)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
@@ -6300,20 +6299,20 @@
         <v>2</v>
       </c>
       <c r="K145" s="42" t="str">
-        <f>IF(OR(B145="",B145=B144),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B145&amp;"', '"&amp;D145&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E145="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B145&amp;"', '"&amp;E145&amp;"', '"&amp;F145&amp;"', "&amp;G145&amp;", '"&amp;H145&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C146" s="16">
-        <f>LEN(B146)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -6329,20 +6328,20 @@
         <v>1</v>
       </c>
       <c r="K146" s="42" t="str">
-        <f>IF(OR(B146="",B146=B145),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B146&amp;"', '"&amp;D146&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E146="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B146&amp;"', '"&amp;E146&amp;"', '"&amp;F146&amp;"', "&amp;G146&amp;", '"&amp;H146&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('shikake_kbn', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C147" s="16">
-        <f>LEN(B147)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D147" s="17" t="s">
@@ -6358,20 +6357,20 @@
         <v>2</v>
       </c>
       <c r="K147" s="42" t="str">
-        <f>IF(OR(B147="",B147=B146),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B147&amp;"', '"&amp;D147&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E147="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B147&amp;"', '"&amp;E147&amp;"', '"&amp;F147&amp;"', "&amp;G147&amp;", '"&amp;H147&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C148" s="16">
-        <f>LEN(B148)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -6387,20 +6386,20 @@
         <v>3</v>
       </c>
       <c r="K148" s="42" t="str">
-        <f>IF(OR(B148="",B148=B147),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B148&amp;"', '"&amp;D148&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E148="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B148&amp;"', '"&amp;E148&amp;"', '"&amp;F148&amp;"', "&amp;G148&amp;", '"&amp;H148&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C149" s="16">
-        <f>LEN(B149)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D149" s="17" t="s">
@@ -6416,20 +6415,20 @@
         <v>4</v>
       </c>
       <c r="K149" s="42" t="str">
-        <f>IF(OR(B149="",B149=B148),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B149&amp;"', '"&amp;D149&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E149="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B149&amp;"', '"&amp;E149&amp;"', '"&amp;F149&amp;"', "&amp;G149&amp;", '"&amp;H149&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C150" s="16">
-        <f>LEN(B150)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D150" s="17" t="s">
@@ -6445,20 +6444,20 @@
         <v>5</v>
       </c>
       <c r="K150" s="42" t="str">
-        <f>IF(OR(B150="",B150=B149),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B150&amp;"', '"&amp;D150&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E150="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B150&amp;"', '"&amp;E150&amp;"', '"&amp;F150&amp;"', "&amp;G150&amp;", '"&amp;H150&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C151" s="16">
-        <f>LEN(B151)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D151" s="17" t="s">
@@ -6474,20 +6473,20 @@
         <v>6</v>
       </c>
       <c r="K151" s="42" t="str">
-        <f>IF(OR(B151="",B151=B150),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B151&amp;"', '"&amp;D151&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E151="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B151&amp;"', '"&amp;E151&amp;"', '"&amp;F151&amp;"', "&amp;G151&amp;", '"&amp;H151&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>217</v>
       </c>
       <c r="C152" s="16">
-        <f>LEN(B152)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D152" s="17" t="s">
@@ -6503,20 +6502,20 @@
         <v>1</v>
       </c>
       <c r="K152" s="42" t="str">
-        <f>IF(OR(B152="",B152=B151),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B152&amp;"', '"&amp;D152&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E152="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B152&amp;"', '"&amp;E152&amp;"', '"&amp;F152&amp;"', "&amp;G152&amp;", '"&amp;H152&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('stan_unit_kbn', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>217</v>
       </c>
       <c r="C153" s="16">
-        <f>LEN(B153)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D153" s="17" t="s">
@@ -6532,20 +6531,20 @@
         <v>2</v>
       </c>
       <c r="K153" s="42" t="str">
-        <f>IF(OR(B153="",B153=B152),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B153&amp;"', '"&amp;D153&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E153="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B153&amp;"', '"&amp;E153&amp;"', '"&amp;F153&amp;"', "&amp;G153&amp;", '"&amp;H153&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C154" s="16">
-        <f>LEN(B154)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D154" s="17" t="s">
@@ -6561,20 +6560,20 @@
         <v>1</v>
       </c>
       <c r="K154" s="42" t="str">
-        <f>IF(OR(B154="",B154=B153),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B154&amp;"', '"&amp;D154&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E154="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B154&amp;"', '"&amp;E154&amp;"', '"&amp;F154&amp;"', "&amp;G154&amp;", '"&amp;H154&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('stocks_kind_kbn', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C155" s="16">
-        <f>LEN(B155)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D155" s="17" t="s">
@@ -6590,20 +6589,20 @@
         <v>2</v>
       </c>
       <c r="K155" s="42" t="str">
-        <f>IF(OR(B155="",B155=B154),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B155&amp;"', '"&amp;D155&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E155="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B155&amp;"', '"&amp;E155&amp;"', '"&amp;F155&amp;"', "&amp;G155&amp;", '"&amp;H155&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C156" s="16">
-        <f>LEN(B156)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D156" s="17" t="s">
@@ -6619,20 +6618,20 @@
         <v>3</v>
       </c>
       <c r="K156" s="42" t="str">
-        <f>IF(OR(B156="",B156=B155),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B156&amp;"', '"&amp;D156&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E156="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B156&amp;"', '"&amp;E156&amp;"', '"&amp;F156&amp;"', "&amp;G156&amp;", '"&amp;H156&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C157" s="16">
-        <f>LEN(B157)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D157" s="17" t="s">
@@ -6648,20 +6647,20 @@
         <v>4</v>
       </c>
       <c r="K157" s="42" t="str">
-        <f>IF(OR(B157="",B157=B156),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B157&amp;"', '"&amp;D157&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E157="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B157&amp;"', '"&amp;E157&amp;"', '"&amp;F157&amp;"', "&amp;G157&amp;", '"&amp;H157&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C158" s="16">
-        <f>LEN(B158)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D158" s="17" t="s">
@@ -6677,20 +6676,20 @@
         <v>5</v>
       </c>
       <c r="K158" s="42" t="str">
-        <f>IF(OR(B158="",B158=B157),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B158&amp;"', '"&amp;D158&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E158="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B158&amp;"', '"&amp;E158&amp;"', '"&amp;F158&amp;"', "&amp;G158&amp;", '"&amp;H158&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C159" s="16">
-        <f>LEN(B159)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D159" s="17" t="s">
@@ -6706,20 +6705,20 @@
         <v>1</v>
       </c>
       <c r="K159" s="42" t="str">
-        <f>IF(OR(B159="",B159=B158),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B159&amp;"', '"&amp;D159&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E159="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B159&amp;"', '"&amp;E159&amp;"', '"&amp;F159&amp;"', "&amp;G159&amp;", '"&amp;H159&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE VALUES ('sup_kbn', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C160" s="16">
-        <f>LEN(B160)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D160" s="17" t="s">
@@ -6735,20 +6734,20 @@
         <v>2</v>
       </c>
       <c r="K160" s="42" t="str">
-        <f>IF(OR(B160="",B160=B159),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B160&amp;"', '"&amp;D160&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E160="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B160&amp;"', '"&amp;E160&amp;"', '"&amp;F160&amp;"', "&amp;G160&amp;", '"&amp;H160&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C161" s="16">
-        <f>LEN(B161)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D161" s="17" t="s">
@@ -6764,8 +6763,66 @@
         <v>3</v>
       </c>
       <c r="K161" s="42" t="str">
-        <f>IF(OR(B161="",B161=B160),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B161&amp;"', '"&amp;D161&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E161="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B161&amp;"', '"&amp;E161&amp;"', '"&amp;F161&amp;"', "&amp;G161&amp;", '"&amp;H161&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" si="14"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '2', '両方', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="2">
+        <f t="shared" si="12"/>
+        <v>159</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="16">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="27">
+        <v>1</v>
+      </c>
+      <c r="K162" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('delete_f', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="2">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C163" s="16">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="G163" s="27">
+        <v>2</v>
+      </c>
+      <c r="K163" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
   </sheetData>
@@ -6775,64 +6832,69 @@
     <sortCondition ref="E4:E161"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:B23 C1:D23 B24:D104 B123:D1048576">
-    <cfRule type="expression" dxfId="11" priority="25">
+  <conditionalFormatting sqref="B3:B23 C1:D23 B24:D104 B123:D161 B164:D1048576">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>IF(B1=B1048576,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:D105">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>IF(B105=B104,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B120 D110:D120">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF(B110=B109,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>IF(C115=C114,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:D121">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>IF(B121=B120,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="6" priority="29">
+    <cfRule type="expression" dxfId="7" priority="30">
       <formula>IF(B2=#REF!,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:D106">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(B106=B105,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:D107">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(B107=B106,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:D108">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(B108=B107,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:D109">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(B109=B108,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C114">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(C110=C109,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:D122">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(B122=B121,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:D163">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(B122=B121,1,0)</formula>
+      <formula>IF(B162=B161,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/knps-com/src/main/schema/コード定義.xlsx
+++ b/knps-com/src/main/schema/コード定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuo\git\emarfkrow\knps-com\src\main\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\emarfkrow\knps-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753112D2-D8A5-4033-9B3F-7B0E228D9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E31A7-5C80-4507-B542-8E156283E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2100,27 +2110,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B857A-33D2-4FE4-85AC-E39AFEA0E4F0}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K162" sqref="K162:K163"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.75" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.08203125" customWidth="1"/>
-    <col min="11" max="11" width="135.58203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="11" max="11" width="135.625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2139,7 +2149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -2165,7 +2175,7 @@
       <c r="I2" s="39"/>
       <c r="K2" s="40"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="14"/>
@@ -2177,16 +2187,16 @@
       <c r="I3" s="5"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C4" s="16">
-        <f t="shared" ref="C4:C35" si="1">LEN(B4)</f>
+        <f>LEN(B4)</f>
         <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2204,20 +2214,20 @@
       <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="K4" s="42" t="str">
-        <f t="shared" ref="K4:K35" si="2">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K4:K35" si="0">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE VALUES ('bunkatsu_mail_f', '部署分割送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C5" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B5)</f>
         <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2233,20 +2243,20 @@
         <v>2</v>
       </c>
       <c r="K5" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '1', '部門毎', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C6" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B6)</f>
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -2262,20 +2272,20 @@
         <v>1</v>
       </c>
       <c r="K6" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('chumon_mail_f', '注文書送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B7)</f>
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2291,20 +2301,20 @@
         <v>2</v>
       </c>
       <c r="K7" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '1', '発注残', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B8)</f>
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2320,20 +2330,20 @@
         <v>1</v>
       </c>
       <c r="K8" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('comp_code', '部署', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '10', '生産管理', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B9)</f>
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2349,20 +2359,20 @@
         <v>2</v>
       </c>
       <c r="K9" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '15', '生管役職', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B10)</f>
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2378,20 +2388,20 @@
         <v>3</v>
       </c>
       <c r="K10" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '20', '購買', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B11)</f>
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2407,20 +2417,20 @@
         <v>4</v>
       </c>
       <c r="K11" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '25', '検査', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B12)</f>
         <v>9</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2436,20 +2446,20 @@
         <v>5</v>
       </c>
       <c r="K12" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '30', '製造', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C13" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B13)</f>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -2465,20 +2475,20 @@
         <v>6</v>
       </c>
       <c r="K13" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '35', '経理', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B14)</f>
         <v>9</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -2494,20 +2504,20 @@
         <v>7</v>
       </c>
       <c r="K14" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '40', '営業', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C15" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B15)</f>
         <v>9</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2523,20 +2533,20 @@
         <v>8</v>
       </c>
       <c r="K15" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '50', '生産技術', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B16)</f>
         <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2552,20 +2562,20 @@
         <v>9</v>
       </c>
       <c r="K16" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '80', 'その他', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B17)</f>
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2581,20 +2591,20 @@
         <v>10</v>
       </c>
       <c r="K17" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '85', '一般役職', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C18" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B18)</f>
         <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2610,20 +2620,20 @@
         <v>11</v>
       </c>
       <c r="K18" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '99', 'システム管理', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="18">
-        <f t="shared" si="1"/>
+        <f>LEN(B19)</f>
         <v>15</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2639,20 +2649,20 @@
         <v>1</v>
       </c>
       <c r="K19" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('cost_amount_kbn', '原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="18">
-        <f t="shared" si="1"/>
+        <f>LEN(B20)</f>
         <v>15</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2668,21 +2678,21 @@
         <v>2</v>
       </c>
       <c r="K20" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C21" s="16">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>LEN(B21)</f>
+        <v>8</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>282</v>
@@ -2697,27 +2707,27 @@
         <v>1</v>
       </c>
       <c r="K21" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('delete_flag', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('delete_f', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>LEN(B22)</f>
+        <v>8</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>282</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>283</v>
@@ -2726,61 +2736,61 @@
         <v>2</v>
       </c>
       <c r="K22" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="B23" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="16">
+        <f>LEN(B23)</f>
+        <v>11</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="27">
         <v>1</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="7"/>
       <c r="K23" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('f_cost_amount_kbn', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('delete_flag', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>62</v>
+      <c r="B24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="16">
+        <f>LEN(B24)</f>
+        <v>11</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="G24" s="27">
         <v>2</v>
@@ -2788,2958 +2798,2958 @@
       <c r="H24" s="32"/>
       <c r="I24" s="7"/>
       <c r="K24" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
+        <f>ROW()-3</f>
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="18">
+        <f>LEN(B25)</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="K25" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="27">
-        <v>1</v>
-      </c>
-      <c r="K25" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('fraction_kbn', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>INSERT INTO MST_CODE VALUES ('f_cost_amount_kbn', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>228</v>
+      <c r="B26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="18">
+        <f>LEN(B26)</f>
+        <v>17</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="G26" s="27">
         <v>2</v>
       </c>
       <c r="K26" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B27)</f>
         <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>228</v>
       </c>
       <c r="E27" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('fraction_kbn', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <f>ROW()-3</f>
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="16">
+        <f>LEN(B28)</f>
+        <v>12</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2</v>
+      </c>
+      <c r="K28" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <f>ROW()-3</f>
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="16">
+        <f>LEN(B29)</f>
+        <v>12</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F29" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G29" s="27">
         <v>3</v>
       </c>
-      <c r="K27" s="42" t="str">
-        <f t="shared" si="2"/>
+      <c r="K29" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="27">
-        <v>1</v>
-      </c>
-      <c r="K28" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('gaika_kb', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="27">
-        <v>2</v>
-      </c>
-      <c r="K29" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B30)</f>
         <v>8</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G30" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('gaika_kb', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B31)</f>
         <v>8</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G31" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K31" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B32)</f>
         <v>8</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="27">
+        <v>3</v>
+      </c>
+      <c r="K32" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <f>ROW()-3</f>
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="16">
+        <f>LEN(B33)</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="27">
+        <v>4</v>
+      </c>
+      <c r="K33" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <f>ROW()-3</f>
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="16">
+        <f>LEN(B34)</f>
+        <v>8</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F34" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G34" s="27">
         <v>5</v>
       </c>
-      <c r="K32" s="42" t="str">
+      <c r="K34" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <f>ROW()-3</f>
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="16">
+        <f>LEN(B35)</f>
+        <v>10</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="27">
+        <v>1</v>
+      </c>
+      <c r="K35" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('hingun_kbn', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <f>ROW()-3</f>
+        <v>33</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="16">
+        <f>LEN(B36)</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="27">
+        <v>2</v>
+      </c>
+      <c r="K36" s="42" t="str">
+        <f t="shared" ref="K36:K67" si="1">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <f>ROW()-3</f>
+        <v>34</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="16">
+        <f>LEN(B37)</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="27">
+        <v>3</v>
+      </c>
+      <c r="K37" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <f>ROW()-3</f>
+        <v>35</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="16">
+        <f>LEN(B38)</f>
+        <v>10</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="27">
+        <v>4</v>
+      </c>
+      <c r="K38" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <f>ROW()-3</f>
+        <v>36</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="16">
+        <f>LEN(B39)</f>
+        <v>10</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="27">
+        <v>5</v>
+      </c>
+      <c r="K39" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <f>ROW()-3</f>
+        <v>37</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="16">
+        <f>LEN(B40)</f>
+        <v>10</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="27">
+        <v>6</v>
+      </c>
+      <c r="K40" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <f>ROW()-3</f>
+        <v>38</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="16">
+        <f>LEN(B41)</f>
+        <v>10</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="27">
+        <v>7</v>
+      </c>
+      <c r="K41" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <f>ROW()-3</f>
+        <v>39</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="16">
+        <f>LEN(B42)</f>
+        <v>10</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="27">
+        <v>8</v>
+      </c>
+      <c r="K42" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <f>ROW()-3</f>
+        <v>40</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="16">
+        <f>LEN(B43)</f>
+        <v>10</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="27">
+        <v>9</v>
+      </c>
+      <c r="K43" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <f>ROW()-3</f>
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="16">
+        <f>LEN(B44)</f>
+        <v>10</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="27">
+        <v>10</v>
+      </c>
+      <c r="K44" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <f>ROW()-3</f>
+        <v>42</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="16">
+        <f>LEN(B45)</f>
+        <v>10</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="27">
+        <v>11</v>
+      </c>
+      <c r="K45" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <f>ROW()-3</f>
+        <v>43</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="16">
+        <f>LEN(B46)</f>
+        <v>10</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="27">
+        <v>12</v>
+      </c>
+      <c r="K46" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <f>ROW()-3</f>
+        <v>44</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="16">
+        <f>LEN(B47)</f>
+        <v>10</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="27">
+        <v>13</v>
+      </c>
+      <c r="K47" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <f>ROW()-3</f>
+        <v>45</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="16">
+        <f>LEN(B48)</f>
+        <v>10</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="27">
+        <v>14</v>
+      </c>
+      <c r="K48" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <f>ROW()-3</f>
+        <v>46</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="16">
+        <f>LEN(B49)</f>
+        <v>10</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="27">
+        <v>15</v>
+      </c>
+      <c r="K49" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <f>ROW()-3</f>
+        <v>47</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="16">
+        <f>LEN(B50)</f>
+        <v>10</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="27">
+        <v>16</v>
+      </c>
+      <c r="K50" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <f>ROW()-3</f>
+        <v>48</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="16">
+        <f>LEN(B51)</f>
+        <v>10</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="27">
+        <v>17</v>
+      </c>
+      <c r="K51" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <f>ROW()-3</f>
+        <v>49</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="16">
+        <f>LEN(B52)</f>
+        <v>10</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="27">
+        <v>18</v>
+      </c>
+      <c r="K52" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <f>ROW()-3</f>
+        <v>50</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="16">
+        <f>LEN(B53)</f>
+        <v>10</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="27">
+        <v>19</v>
+      </c>
+      <c r="K53" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <f>ROW()-3</f>
+        <v>51</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="16">
+        <f>LEN(B54)</f>
+        <v>10</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="27">
+        <v>20</v>
+      </c>
+      <c r="K54" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <f>ROW()-3</f>
+        <v>52</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="16">
+        <f>LEN(B55)</f>
+        <v>10</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="27">
+        <v>21</v>
+      </c>
+      <c r="K55" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <f>ROW()-3</f>
+        <v>53</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="16">
+        <f>LEN(B56)</f>
+        <v>10</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="27">
+        <v>22</v>
+      </c>
+      <c r="K56" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <f>ROW()-3</f>
+        <v>54</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="16">
+        <f>LEN(B57)</f>
+        <v>10</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="27">
+        <v>23</v>
+      </c>
+      <c r="K57" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <f>ROW()-3</f>
+        <v>55</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="16">
+        <f>LEN(B58)</f>
+        <v>10</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="27">
+        <v>24</v>
+      </c>
+      <c r="K58" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <f>ROW()-3</f>
+        <v>56</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="16">
+        <f>LEN(B59)</f>
+        <v>10</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="27">
+        <v>25</v>
+      </c>
+      <c r="K59" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <f>ROW()-3</f>
+        <v>57</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="16">
+        <f>LEN(B60)</f>
+        <v>10</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="27">
+        <v>26</v>
+      </c>
+      <c r="K60" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <f>ROW()-3</f>
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="16">
+        <f>LEN(B61)</f>
+        <v>10</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="27">
+        <v>27</v>
+      </c>
+      <c r="K61" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <f>ROW()-3</f>
+        <v>59</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="16">
+        <f>LEN(B62)</f>
+        <v>10</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="27">
+        <v>28</v>
+      </c>
+      <c r="K62" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <f>ROW()-3</f>
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="16">
+        <f>LEN(B63)</f>
+        <v>10</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="27">
+        <v>29</v>
+      </c>
+      <c r="K63" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <f>ROW()-3</f>
+        <v>61</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="16">
+        <f>LEN(B64)</f>
+        <v>10</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="27">
+        <v>30</v>
+      </c>
+      <c r="K64" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <f>ROW()-3</f>
+        <v>62</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="16">
+        <f>LEN(B65)</f>
+        <v>10</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="27">
+        <v>31</v>
+      </c>
+      <c r="K65" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <f>ROW()-3</f>
+        <v>63</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="16">
+        <f>LEN(B66)</f>
+        <v>10</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" s="27">
+        <v>32</v>
+      </c>
+      <c r="K66" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <f>ROW()-3</f>
+        <v>64</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="16">
+        <f>LEN(B67)</f>
+        <v>10</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G67" s="27">
+        <v>33</v>
+      </c>
+      <c r="K67" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <f>ROW()-3</f>
+        <v>65</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="16">
+        <f>LEN(B68)</f>
+        <v>10</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="27">
+        <v>34</v>
+      </c>
+      <c r="K68" s="42" t="str">
+        <f t="shared" ref="K68:K99" si="2">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <f>ROW()-3</f>
+        <v>66</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="16">
+        <f>LEN(B69)</f>
+        <v>10</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="27">
+        <v>35</v>
+      </c>
+      <c r="K69" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="47" t="s">
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <f>ROW()-3</f>
+        <v>67</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="16">
+        <f>LEN(B70)</f>
+        <v>10</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="27">
+        <v>36</v>
+      </c>
+      <c r="K70" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <f>ROW()-3</f>
+        <v>68</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="16">
+        <f>LEN(B71)</f>
+        <v>10</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="27">
+        <v>37</v>
+      </c>
+      <c r="K71" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <f>ROW()-3</f>
         <v>69</v>
       </c>
-      <c r="G33" s="27">
-        <v>1</v>
-      </c>
-      <c r="K33" s="42" t="str">
+      <c r="B72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="16">
+        <f>LEN(B72)</f>
+        <v>10</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="27">
+        <v>38</v>
+      </c>
+      <c r="K72" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('hingun_kbn', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="47" t="s">
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <f>ROW()-3</f>
         <v>70</v>
       </c>
-      <c r="G34" s="27">
-        <v>2</v>
-      </c>
-      <c r="K34" s="42" t="str">
+      <c r="B73" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="16">
+        <f>LEN(B73)</f>
+        <v>10</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="27">
+        <v>39</v>
+      </c>
+      <c r="K73" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="47" t="s">
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <f>ROW()-3</f>
         <v>71</v>
       </c>
-      <c r="G35" s="27">
-        <v>3</v>
-      </c>
-      <c r="K35" s="42" t="str">
+      <c r="B74" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="16">
+        <f>LEN(B74)</f>
+        <v>10</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="27">
+        <v>40</v>
+      </c>
+      <c r="K74" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <f t="shared" ref="A36:A67" si="3">ROW()-3</f>
-        <v>33</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" ref="C36:C67" si="4">LEN(B36)</f>
-        <v>10</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="47" t="s">
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <f>ROW()-3</f>
         <v>72</v>
       </c>
-      <c r="G36" s="27">
-        <v>4</v>
-      </c>
-      <c r="K36" s="42" t="str">
-        <f t="shared" ref="K36:K67" si="5">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="47" t="s">
+      <c r="B75" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="16">
+        <f>LEN(B75)</f>
+        <v>10</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="27">
+        <v>41</v>
+      </c>
+      <c r="K75" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <f>ROW()-3</f>
         <v>73</v>
       </c>
-      <c r="G37" s="27">
-        <v>5</v>
-      </c>
-      <c r="K37" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="47" t="s">
+      <c r="B76" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="16">
+        <f>LEN(B76)</f>
+        <v>10</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="27">
+        <v>42</v>
+      </c>
+      <c r="K76" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <f>ROW()-3</f>
         <v>74</v>
       </c>
-      <c r="G38" s="27">
-        <v>6</v>
-      </c>
-      <c r="K38" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="47" t="s">
+      <c r="B77" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="16">
+        <f>LEN(B77)</f>
+        <v>10</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="27">
+        <v>43</v>
+      </c>
+      <c r="K77" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <f>ROW()-3</f>
         <v>75</v>
       </c>
-      <c r="G39" s="27">
-        <v>7</v>
-      </c>
-      <c r="K39" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="47" t="s">
+      <c r="B78" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="16">
+        <f>LEN(B78)</f>
+        <v>10</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="27">
+        <v>44</v>
+      </c>
+      <c r="K78" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <f>ROW()-3</f>
         <v>76</v>
       </c>
-      <c r="G40" s="27">
-        <v>8</v>
-      </c>
-      <c r="K40" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="47" t="s">
+      <c r="B79" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="16">
+        <f>LEN(B79)</f>
+        <v>10</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="27">
+        <v>45</v>
+      </c>
+      <c r="K79" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <f>ROW()-3</f>
         <v>77</v>
       </c>
-      <c r="G41" s="27">
-        <v>9</v>
-      </c>
-      <c r="K41" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="47" t="s">
+      <c r="B80" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="16">
+        <f>LEN(B80)</f>
+        <v>10</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="27">
+        <v>46</v>
+      </c>
+      <c r="K80" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <f>ROW()-3</f>
         <v>78</v>
       </c>
-      <c r="G42" s="27">
-        <v>10</v>
-      </c>
-      <c r="K42" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="47" t="s">
+      <c r="B81" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="16">
+        <f>LEN(B81)</f>
+        <v>10</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="27">
+        <v>47</v>
+      </c>
+      <c r="K81" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <f>ROW()-3</f>
         <v>79</v>
       </c>
-      <c r="G43" s="27">
-        <v>11</v>
-      </c>
-      <c r="K43" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="27">
-        <v>12</v>
-      </c>
-      <c r="K44" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="27">
-        <v>13</v>
-      </c>
-      <c r="K45" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="27">
-        <v>14</v>
-      </c>
-      <c r="K46" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="27">
-        <v>15</v>
-      </c>
-      <c r="K47" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="27">
-        <v>16</v>
-      </c>
-      <c r="K48" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="27">
-        <v>17</v>
-      </c>
-      <c r="K49" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="27">
-        <v>18</v>
-      </c>
-      <c r="K50" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
-        <f t="shared" si="3"/>
+      <c r="B82" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="16">
+        <f>LEN(B82)</f>
+        <v>10</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="27">
         <v>48</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="27">
-        <v>19</v>
-      </c>
-      <c r="K51" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="27">
-        <v>20</v>
-      </c>
-      <c r="K52" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="27">
-        <v>21</v>
-      </c>
-      <c r="K53" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="27">
-        <v>22</v>
-      </c>
-      <c r="K54" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="27">
-        <v>23</v>
-      </c>
-      <c r="K55" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="27">
-        <v>24</v>
-      </c>
-      <c r="K56" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="27">
-        <v>25</v>
-      </c>
-      <c r="K57" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="27">
-        <v>26</v>
-      </c>
-      <c r="K58" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="27">
-        <v>27</v>
-      </c>
-      <c r="K59" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="G60" s="27">
-        <v>28</v>
-      </c>
-      <c r="K60" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="27">
-        <v>29</v>
-      </c>
-      <c r="K61" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F62" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="27">
-        <v>30</v>
-      </c>
-      <c r="K62" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63" s="27">
-        <v>31</v>
-      </c>
-      <c r="K63" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="27">
-        <v>32</v>
-      </c>
-      <c r="K64" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="27">
-        <v>33</v>
-      </c>
-      <c r="K65" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="27">
-        <v>34</v>
-      </c>
-      <c r="K66" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="27">
-        <v>35</v>
-      </c>
-      <c r="K67" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
-        <f t="shared" ref="A68:A99" si="6">ROW()-3</f>
-        <v>65</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="16">
-        <f t="shared" ref="C68:C99" si="7">LEN(B68)</f>
-        <v>10</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="27">
-        <v>36</v>
-      </c>
-      <c r="K68" s="42" t="str">
-        <f t="shared" ref="K68:K99" si="8">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="27">
-        <v>37</v>
-      </c>
-      <c r="K69" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" s="27">
-        <v>38</v>
-      </c>
-      <c r="K70" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F71" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G71" s="27">
-        <v>39</v>
-      </c>
-      <c r="K71" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="27">
-        <v>40</v>
-      </c>
-      <c r="K72" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G73" s="27">
-        <v>41</v>
-      </c>
-      <c r="K73" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F74" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="27">
-        <v>42</v>
-      </c>
-      <c r="K74" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G75" s="27">
-        <v>43</v>
-      </c>
-      <c r="K75" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F76" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" s="27">
-        <v>44</v>
-      </c>
-      <c r="K76" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G77" s="27">
-        <v>45</v>
-      </c>
-      <c r="K77" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G78" s="27">
-        <v>46</v>
-      </c>
-      <c r="K78" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="27">
-        <v>47</v>
-      </c>
-      <c r="K79" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F80" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="27">
-        <v>48</v>
-      </c>
-      <c r="K80" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="G81" s="27">
-        <v>49</v>
-      </c>
-      <c r="K81" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" s="27">
-        <v>50</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="2"/>
       <c r="K82" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <f>ROW()-3</f>
+        <v>80</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="16">
+        <f>LEN(B83)</f>
+        <v>10</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" s="27">
+        <v>49</v>
+      </c>
+      <c r="K83" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <f>ROW()-3</f>
+        <v>81</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="16">
+        <f>LEN(B84)</f>
+        <v>10</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="27">
+        <v>50</v>
+      </c>
+      <c r="K84" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="26" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <f>ROW()-3</f>
+        <v>82</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="16">
+        <f>LEN(B85)</f>
+        <v>10</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="47" t="s">
+      <c r="F85" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G85" s="27">
         <v>51</v>
       </c>
-      <c r="K83" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K85" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E84" s="26" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <f>ROW()-3</f>
+        <v>83</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="16">
+        <f>LEN(B86)</f>
+        <v>10</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F84" s="47" t="s">
+      <c r="F86" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G86" s="27">
         <v>52</v>
       </c>
-      <c r="K84" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K86" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2">
-        <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="26" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <f>ROW()-3</f>
+        <v>84</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="16">
+        <f>LEN(B87)</f>
+        <v>10</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F87" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G87" s="27">
         <v>53</v>
       </c>
-      <c r="K85" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K87" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E86" s="26" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <f>ROW()-3</f>
+        <v>85</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="16">
+        <f>LEN(B88)</f>
+        <v>10</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="47" t="s">
+      <c r="F88" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G88" s="27">
         <v>54</v>
       </c>
-      <c r="K86" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K88" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="26" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <f>ROW()-3</f>
+        <v>86</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="16">
+        <f>LEN(B89)</f>
+        <v>10</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F89" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G89" s="27">
         <v>55</v>
       </c>
-      <c r="K87" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K89" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" s="26" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <f>ROW()-3</f>
+        <v>87</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="16">
+        <f>LEN(B90)</f>
+        <v>10</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F88" s="47" t="s">
+      <c r="F90" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G90" s="27">
         <v>56</v>
       </c>
-      <c r="K88" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K90" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="26" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <f>ROW()-3</f>
+        <v>88</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="16">
+        <f>LEN(B91)</f>
+        <v>10</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F89" s="47" t="s">
+      <c r="F91" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G91" s="27">
         <v>57</v>
       </c>
-      <c r="K89" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K91" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="26" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <f>ROW()-3</f>
+        <v>89</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="16">
+        <f>LEN(B92)</f>
+        <v>10</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="F92" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G92" s="27">
         <v>58</v>
       </c>
-      <c r="K90" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K92" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E91" s="26" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <f>ROW()-3</f>
+        <v>90</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="16">
+        <f>LEN(B93)</f>
+        <v>10</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="F93" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G93" s="27">
         <v>59</v>
       </c>
-      <c r="K91" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K93" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C92" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" s="26" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <f>ROW()-3</f>
+        <v>91</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="16">
+        <f>LEN(B94)</f>
+        <v>10</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F92" s="47" t="s">
+      <c r="F94" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G94" s="27">
         <v>60</v>
       </c>
-      <c r="K92" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K94" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="26" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <f>ROW()-3</f>
+        <v>92</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="16">
+        <f>LEN(B95)</f>
+        <v>10</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="47" t="s">
+      <c r="F95" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G95" s="27">
         <v>61</v>
       </c>
-      <c r="K93" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K95" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E94" s="26" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <f>ROW()-3</f>
+        <v>93</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="16">
+        <f>LEN(B96)</f>
+        <v>10</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F94" s="47" t="s">
+      <c r="F96" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G96" s="27">
         <v>62</v>
       </c>
-      <c r="K94" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K96" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="26" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <f>ROW()-3</f>
+        <v>94</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="16">
+        <f>LEN(B97)</f>
+        <v>10</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="F95" s="47" t="s">
+      <c r="F97" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G97" s="27">
         <v>63</v>
       </c>
-      <c r="K95" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K97" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E96" s="26" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <f>ROW()-3</f>
+        <v>95</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="16">
+        <f>LEN(B98)</f>
+        <v>10</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F98" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="G96" s="27">
+      <c r="G98" s="27">
         <v>64</v>
       </c>
-      <c r="K96" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K98" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="2">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E97" s="26" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <f>ROW()-3</f>
+        <v>96</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="16">
+        <f>LEN(B99)</f>
+        <v>10</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F99" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G99" s="27">
         <v>65</v>
       </c>
-      <c r="K97" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K99" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="2">
-        <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E98" s="26" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <f>ROW()-3</f>
+        <v>97</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="16">
+        <f>LEN(B100)</f>
+        <v>10</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F98" s="47" t="s">
+      <c r="F100" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G100" s="27">
         <v>66</v>
       </c>
-      <c r="K98" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K100" s="42" t="str">
+        <f t="shared" ref="K100:K131" si="3">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="2">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="26" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <f>ROW()-3</f>
+        <v>98</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="16">
+        <f>LEN(B101)</f>
+        <v>10</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F99" s="47" t="s">
+      <c r="F101" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="G99" s="27">
+      <c r="G101" s="27">
         <v>67</v>
       </c>
-      <c r="K99" s="42" t="str">
-        <f t="shared" si="8"/>
+      <c r="K101" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="2">
-        <f t="shared" ref="A100:A131" si="9">ROW()-3</f>
-        <v>97</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="16">
-        <f t="shared" ref="C100:C131" si="10">LEN(B100)</f>
-        <v>10</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="26" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <f>ROW()-3</f>
+        <v>99</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="16">
+        <f>LEN(B102)</f>
+        <v>10</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F100" s="47" t="s">
+      <c r="F102" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="G100" s="27">
+      <c r="G102" s="27">
         <v>68</v>
       </c>
-      <c r="K100" s="42" t="str">
-        <f t="shared" ref="K100:K131" si="11">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+      <c r="K102" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="2">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E101" s="26" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <f>ROW()-3</f>
+        <v>100</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="16">
+        <f>LEN(B103)</f>
+        <v>10</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F101" s="47" t="s">
+      <c r="F103" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G103" s="27">
         <v>69</v>
       </c>
-      <c r="K101" s="42" t="str">
-        <f t="shared" si="11"/>
+      <c r="K103" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2">
-        <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="26" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <f>ROW()-3</f>
+        <v>101</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="16">
+        <f>LEN(B104)</f>
+        <v>10</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F102" s="47" t="s">
+      <c r="F104" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G102" s="27">
+      <c r="G104" s="27">
         <v>70</v>
       </c>
-      <c r="K102" s="42" t="str">
-        <f t="shared" si="11"/>
+      <c r="K104" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="26" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <f>ROW()-3</f>
+        <v>102</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="16">
+        <f>LEN(B105)</f>
+        <v>10</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="47" t="s">
+      <c r="F105" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G103" s="27">
+      <c r="G105" s="27">
         <v>71</v>
       </c>
-      <c r="K103" s="42" t="str">
-        <f t="shared" si="11"/>
+      <c r="K105" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2">
-        <f t="shared" si="9"/>
-        <v>101</v>
-      </c>
-      <c r="B104" s="10" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <f>ROW()-3</f>
+        <v>103</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C104" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="D104" s="17" t="s">
+      <c r="C106" s="16">
+        <f>LEN(B106)</f>
+        <v>10</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E106" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="47" t="s">
+      <c r="F106" s="47" t="s">
         <v>8</v>
-      </c>
-      <c r="G104" s="27">
-        <v>1</v>
-      </c>
-      <c r="K104" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('host_n_kbn', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="2">
-        <f t="shared" si="9"/>
-        <v>102</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="27">
-        <v>2</v>
-      </c>
-      <c r="K105" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="2">
-        <f t="shared" si="9"/>
-        <v>103</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="16">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="47" t="s">
-        <v>13</v>
       </c>
       <c r="G106" s="27">
         <v>1</v>
       </c>
       <c r="K106" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('item_kbn', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('host_n_kbn', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="C107" s="16">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>LEN(B107)</f>
+        <v>10</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G107" s="27">
         <v>2</v>
       </c>
       <c r="K107" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B108)</f>
         <v>8</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G108" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K108" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('item_kbn', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B109)</f>
         <v>8</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G109" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B110)</f>
         <v>8</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G110" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K110" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B111)</f>
         <v>8</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G111" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K111" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>109</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B112)</f>
         <v>8</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G112" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K112" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B113)</f>
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G113" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K113" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>111</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B114)</f>
         <v>8</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G114" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K114" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B115)</f>
         <v>8</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G115" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K115" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>113</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B116)</f>
         <v>8</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G116" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K116" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>114</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B117)</f>
         <v>8</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K117" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>115</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B118)</f>
         <v>8</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G118" s="27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K118" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>116</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B119)</f>
         <v>8</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="27">
+        <v>12</v>
+      </c>
+      <c r="K119" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <f>ROW()-3</f>
+        <v>117</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="16">
+        <f>LEN(B120)</f>
+        <v>8</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="27">
+        <v>13</v>
+      </c>
+      <c r="K120" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <f>ROW()-3</f>
+        <v>118</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="16">
+        <f>LEN(B121)</f>
+        <v>8</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F119" s="47" t="s">
+      <c r="F121" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G121" s="27">
         <v>14</v>
       </c>
-      <c r="K119" s="42" t="str">
-        <f t="shared" si="11"/>
+      <c r="K121" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="2">
-        <f t="shared" si="9"/>
-        <v>117</v>
-      </c>
-      <c r="B120" s="10" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <f>ROW()-3</f>
+        <v>119</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="16">
-        <f t="shared" si="10"/>
+      <c r="C122" s="16">
+        <f>LEN(B122)</f>
         <v>13</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D122" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="F120" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="27">
-        <v>1</v>
-      </c>
-      <c r="K120" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('kenshu_mail_f', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="2">
-        <f t="shared" si="9"/>
-        <v>118</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" s="16">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="G121" s="27">
-        <v>2</v>
-      </c>
-      <c r="K121" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="2">
-        <f t="shared" si="9"/>
-        <v>119</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="16">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>229</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="G122" s="27">
         <v>1</v>
       </c>
       <c r="K122" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('list_output_kbn', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('kenshu_mail_f', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C123" s="16">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f>LEN(B123)</f>
+        <v>13</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>222</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G123" s="27">
         <v>2</v>
       </c>
       <c r="K123" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>121</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C124" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>LEN(B124)</f>
+        <v>15</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>229</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="G124" s="27">
         <v>1</v>
       </c>
       <c r="K124" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('mail_bcc_f', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('list_output_kbn', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C125" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>LEN(B125)</f>
+        <v>15</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>222</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G125" s="27">
         <v>2</v>
       </c>
       <c r="K125" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>123</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C126" s="16">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f>LEN(B126)</f>
+        <v>10</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="F126" s="47" t="s">
         <v>8</v>
@@ -5748,53 +5758,53 @@
         <v>1</v>
       </c>
       <c r="K126" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('musho_hacchu_f', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('mail_bcc_f', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C127" s="16">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f>LEN(B127)</f>
+        <v>10</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="G127" s="27">
         <v>2</v>
       </c>
       <c r="K127" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C128" s="16">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f>LEN(B128)</f>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>9</v>
@@ -5806,372 +5816,372 @@
         <v>1</v>
       </c>
       <c r="K128" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('nohin_send_yohi_kbn', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('musho_hacchu_f', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C129" s="16">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f>LEN(B129)</f>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="G129" s="27">
         <v>2</v>
       </c>
       <c r="K129" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>127</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C130" s="16">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f>LEN(B130)</f>
+        <v>19</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="G130" s="27">
         <v>1</v>
       </c>
       <c r="K130" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('order_accept_kbn', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('nohin_send_yohi_kbn', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>128</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C131" s="16">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f>LEN(B131)</f>
+        <v>19</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E131" s="26" t="s">
         <v>222</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G131" s="27">
         <v>2</v>
       </c>
       <c r="K131" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
-        <f t="shared" ref="A132:A163" si="12">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>129</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="C132" s="16">
-        <f t="shared" ref="C132:C163" si="13">LEN(B132)</f>
-        <v>10</v>
+        <f>LEN(B132)</f>
+        <v>16</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" s="31">
+        <v>234</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F132" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G132" s="27">
         <v>1</v>
       </c>
       <c r="K132" s="42" t="str">
-        <f t="shared" ref="K132:K163" si="14">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE VALUES ('poison_kbn', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="K132:K163" si="4">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE VALUES ('order_accept_kbn', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="C133" s="16">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>LEN(B133)</f>
+        <v>16</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="G133" s="27">
         <v>2</v>
       </c>
       <c r="K133" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>131</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="C134" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B134)</f>
+        <v>10</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F134" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G134" s="27">
+      <c r="G134" s="31">
         <v>1</v>
       </c>
       <c r="K134" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('position', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('position', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('poison_kbn', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>132</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="C135" s="16">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f>LEN(B135)</f>
+        <v>10</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="G135" s="27">
         <v>2</v>
       </c>
       <c r="K135" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>133</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C136" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B136)</f>
         <v>8</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>260</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G136" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K136" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('position', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('position', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B137)</f>
         <v>8</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>260</v>
       </c>
       <c r="E137" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="G137" s="27">
+        <v>2</v>
+      </c>
+      <c r="K137" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <f>ROW()-3</f>
+        <v>135</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C138" s="16">
+        <f>LEN(B138)</f>
+        <v>8</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F138" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="27">
+        <v>3</v>
+      </c>
+      <c r="K138" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <f>ROW()-3</f>
+        <v>136</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C139" s="16">
+        <f>LEN(B139)</f>
+        <v>8</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E139" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="F139" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G139" s="27">
         <v>4</v>
       </c>
-      <c r="K137" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K139" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="2">
-        <f t="shared" si="12"/>
-        <v>135</v>
-      </c>
-      <c r="B138" s="10" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <f>ROW()-3</f>
+        <v>137</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C138" s="16">
-        <f t="shared" si="13"/>
+      <c r="C140" s="16">
+        <f>LEN(B140)</f>
         <v>9</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D140" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E140" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="47" t="s">
+      <c r="F140" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G140" s="27">
         <v>1</v>
       </c>
-      <c r="K138" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K140" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE VALUES ('print_kbn', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="2">
-        <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-      <c r="B139" s="10" t="s">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <f>ROW()-3</f>
+        <v>138</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C139" s="16">
-        <f t="shared" si="13"/>
+      <c r="C141" s="16">
+        <f>LEN(B141)</f>
         <v>9</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D141" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="27">
-        <v>2</v>
-      </c>
-      <c r="K139" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="2">
-        <f t="shared" si="12"/>
-        <v>137</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C140" s="16">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" s="31">
-        <v>1</v>
-      </c>
-      <c r="K140" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('rest_article_kbn', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="2">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C141" s="16">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>6</v>
@@ -6183,24 +6193,24 @@
         <v>2</v>
       </c>
       <c r="K141" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>139</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" s="18">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="D142" s="19" t="s">
-        <v>63</v>
+      <c r="B142" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="16">
+        <f>LEN(B142)</f>
+        <v>16</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E142" s="30" t="s">
         <v>9</v>
@@ -6212,24 +6222,24 @@
         <v>1</v>
       </c>
       <c r="K142" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('s_cost_amount_kbn', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('rest_article_kbn', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>140</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" s="18">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>63</v>
+      <c r="B143" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="16">
+        <f>LEN(B143)</f>
+        <v>16</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>6</v>
@@ -6241,595 +6251,595 @@
         <v>2</v>
       </c>
       <c r="K143" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>141</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C144" s="16">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E144" s="26" t="s">
+      <c r="B144" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="18">
+        <f>LEN(B144)</f>
+        <v>17</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="47" t="s">
+      <c r="F144" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G144" s="31">
         <v>1</v>
       </c>
       <c r="K144" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('send_sup_kbn', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('s_cost_amount_kbn', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>142</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C145" s="16">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>242</v>
+      <c r="B145" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="18">
+        <f>LEN(B145)</f>
+        <v>17</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="G145" s="27">
         <v>2</v>
       </c>
       <c r="K145" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>143</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="C146" s="16">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f>LEN(B146)</f>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G146" s="27">
         <v>1</v>
       </c>
       <c r="K146" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('shikake_kbn', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('send_sup_kbn', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>144</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="C147" s="16">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f>LEN(B147)</f>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="G147" s="27">
         <v>2</v>
       </c>
       <c r="K147" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>145</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C148" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B148)</f>
         <v>11</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G148" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K148" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('shikake_kbn', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>146</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C149" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B149)</f>
         <v>11</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G149" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K149" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>147</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C150" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B150)</f>
         <v>11</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G150" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K150" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C151" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B151)</f>
         <v>11</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E151" s="30" t="s">
+      <c r="E151" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F151" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G151" s="27">
+        <v>4</v>
+      </c>
+      <c r="K151" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A152" s="2">
+        <f>ROW()-3</f>
+        <v>149</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="16">
+        <f>LEN(B152)</f>
+        <v>11</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" s="27">
+        <v>5</v>
+      </c>
+      <c r="K152" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="2">
+        <f>ROW()-3</f>
+        <v>150</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="16">
+        <f>LEN(B153)</f>
+        <v>11</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F151" s="48" t="s">
+      <c r="F153" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="27">
+      <c r="G153" s="27">
         <v>6</v>
       </c>
-      <c r="K151" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K153" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="2">
-        <f t="shared" si="12"/>
-        <v>149</v>
-      </c>
-      <c r="B152" s="10" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A154" s="2">
+        <f>ROW()-3</f>
+        <v>151</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="16">
-        <f t="shared" si="13"/>
+      <c r="C154" s="16">
+        <f>LEN(B154)</f>
         <v>13</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D154" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E152" s="30" t="s">
+      <c r="E154" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="48" t="s">
+      <c r="F154" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="31">
+      <c r="G154" s="31">
         <v>1</v>
       </c>
-      <c r="K152" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K154" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE VALUES ('stan_unit_kbn', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="2">
-        <f t="shared" si="12"/>
-        <v>150</v>
-      </c>
-      <c r="B153" s="10" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="2">
+        <f>ROW()-3</f>
+        <v>152</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C153" s="16">
-        <f t="shared" si="13"/>
+      <c r="C155" s="16">
+        <f>LEN(B155)</f>
         <v>13</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D155" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E155" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F153" s="47" t="s">
+      <c r="F155" s="47" t="s">
         <v>219</v>
-      </c>
-      <c r="G153" s="27">
-        <v>2</v>
-      </c>
-      <c r="K153" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="2">
-        <f t="shared" si="12"/>
-        <v>151</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C154" s="16">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="27">
-        <v>1</v>
-      </c>
-      <c r="K154" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('stocks_kind_kbn', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="2">
-        <f t="shared" si="12"/>
-        <v>152</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155" s="16">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="47" t="s">
-        <v>200</v>
       </c>
       <c r="G155" s="27">
         <v>2</v>
       </c>
       <c r="K155" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>153</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C156" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B156)</f>
         <v>15</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>199</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F156" s="47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G156" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K156" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('stocks_kind_kbn', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C157" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B157)</f>
         <v>15</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>199</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G157" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K157" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>155</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C158" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B158)</f>
         <v>15</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>199</v>
       </c>
       <c r="E158" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="27">
+        <v>3</v>
+      </c>
+      <c r="K158" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A159" s="2">
+        <f>ROW()-3</f>
+        <v>156</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" s="16">
+        <f>LEN(B159)</f>
+        <v>15</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G159" s="27">
+        <v>4</v>
+      </c>
+      <c r="K159" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <f>ROW()-3</f>
+        <v>157</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" s="16">
+        <f>LEN(B160)</f>
+        <v>15</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E160" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F158" s="47" t="s">
+      <c r="F160" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="G158" s="27">
+      <c r="G160" s="27">
         <v>5</v>
       </c>
-      <c r="K158" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K160" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="2">
-        <f t="shared" si="12"/>
-        <v>156</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C159" s="16">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="G159" s="27">
-        <v>1</v>
-      </c>
-      <c r="K159" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('sup_kbn', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="2">
-        <f t="shared" si="12"/>
-        <v>157</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C160" s="16">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F160" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="G160" s="27">
-        <v>2</v>
-      </c>
-      <c r="K160" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>158</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C161" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B161)</f>
         <v>7</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>221</v>
       </c>
       <c r="E161" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G161" s="27">
+        <v>1</v>
+      </c>
+      <c r="K161" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('sup_kbn', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <f>ROW()-3</f>
+        <v>159</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" s="16">
+        <f>LEN(B162)</f>
+        <v>7</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F162" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="G162" s="27">
+        <v>2</v>
+      </c>
+      <c r="K162" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <f>ROW()-3</f>
+        <v>160</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" s="16">
+        <f>LEN(B163)</f>
+        <v>7</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E163" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F161" s="47" t="s">
+      <c r="F163" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="G161" s="27">
+      <c r="G163" s="27">
         <v>3</v>
       </c>
-      <c r="K161" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="K163" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '2', '両方', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="2">
-        <f t="shared" si="12"/>
-        <v>159</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C162" s="16">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162" s="27">
-        <v>1</v>
-      </c>
-      <c r="K162" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('delete_f', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="2">
-        <f t="shared" si="12"/>
-        <v>160</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C163" s="16">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="G163" s="27">
-        <v>2</v>
-      </c>
-      <c r="K163" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:K3" xr:uid="{BAE1F28F-841F-44B7-B025-5C8CFD2708E4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G161">
-    <sortCondition ref="B4:B161"/>
-    <sortCondition ref="E4:E161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G163">
+    <sortCondition ref="B4:B163"/>
+    <sortCondition ref="E4:E163"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:B23 C1:D23 B24:D104 B123:D161 B164:D1048576">

--- a/knps-com/src/main/schema/コード定義.xlsx
+++ b/knps-com/src/main/schema/コード定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\emarfkrow\knps-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E31A7-5C80-4507-B542-8E156283E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719F9EA-1094-4671-8595-A825BE2A9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>品目区分</t>
     <rPh sb="0" eb="4">
       <t>ヒンモククブン</t>
@@ -214,10 +210,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>shikake_kbn</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>仕掛区分</t>
@@ -264,18 +256,6 @@
   </si>
   <si>
     <t>市販 かんばん品</t>
-  </si>
-  <si>
-    <t>cost_amount_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f_cost_amount_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_cost_amount_kbn</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>原価積上計算有無</t>
@@ -317,10 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>poison_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>劇毒区分</t>
     <rPh sb="0" eb="4">
       <t>ゲキドククブン</t>
@@ -335,10 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rest_article_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残品在庫管理有無</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -722,10 +694,6 @@
   </si>
   <si>
     <t>71</t>
-  </si>
-  <si>
-    <t>hingun_kbn</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>品群区分</t>
@@ -738,10 +706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stocks_kind_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫種別区分</t>
     <rPh sb="0" eb="6">
       <t>ザイコシュベツクブン</t>
@@ -758,10 +722,6 @@
     <t>貯蓄品</t>
   </si>
   <si>
-    <t>gaika_kb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外貨区分</t>
     <rPh sb="0" eb="4">
       <t>ガイカクブン</t>
@@ -784,10 +744,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>musho_hacchu_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無償発注フラグ</t>
     <rPh sb="0" eb="4">
       <t>ムショウハッチュウ</t>
@@ -802,10 +758,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>print_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>印刷区分</t>
     <rPh sb="0" eb="4">
       <t>インサツクブン</t>
@@ -813,18 +765,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>host_n_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホスト入庫区分</t>
     <rPh sb="3" eb="7">
       <t>ニュウコクブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stan_unit_kbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -845,10 +789,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sup_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取引先区分</t>
     <rPh sb="0" eb="5">
       <t>トリヒキサキクブン</t>
@@ -879,10 +819,6 @@
     <rPh sb="0" eb="2">
       <t>リョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fraction_kbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -924,10 +860,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>order_accept_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注文書扱い区分</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -940,10 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list_output_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取引先別集計リスト発行区分</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -953,10 +881,6 @@
   </si>
   <si>
     <t>品番明細</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>send_sup_kbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -971,10 +895,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nohin_send_yohi_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納品書出力要否</t>
     <rPh sb="0" eb="7">
       <t>ノウヒンショシュツリョクヨウヒ</t>
@@ -986,10 +906,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bunkatsu_mail_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部署分割送信フラグ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1001,10 +917,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chumon_mail_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注文書送信フラグ</t>
     <rPh sb="0" eb="5">
       <t>チュウモンショソウシン</t>
@@ -1016,10 +928,6 @@
     <rPh sb="0" eb="3">
       <t>ハッチュウザン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kenshu_mail_f</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1040,19 +948,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail_bcc_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BCC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メールBCCフラグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1095,10 +995,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comp_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部署</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1140,10 +1036,6 @@
   </si>
   <si>
     <t>99</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1248,8 +1140,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>delete_f</t>
-    <phoneticPr fontId="1"/>
+    <t>BUNKATSU_MAIL_F</t>
+  </si>
+  <si>
+    <t>CHUMON_MAIL_F</t>
+  </si>
+  <si>
+    <t>COMP_CODE</t>
+  </si>
+  <si>
+    <t>COST_AMOUNT_KBN</t>
+  </si>
+  <si>
+    <t>DELETE_F</t>
+  </si>
+  <si>
+    <t>DELETE_FLAG</t>
+  </si>
+  <si>
+    <t>F_COST_AMOUNT_KBN</t>
+  </si>
+  <si>
+    <t>FRACTION_KBN</t>
+  </si>
+  <si>
+    <t>GAIKA_KB</t>
+  </si>
+  <si>
+    <t>HINGUN_KBN</t>
+  </si>
+  <si>
+    <t>HOST_N_KBN</t>
+  </si>
+  <si>
+    <t>ITEM_KBN</t>
+  </si>
+  <si>
+    <t>KENSHU_MAIL_F</t>
+  </si>
+  <si>
+    <t>LIST_OUTPUT_KBN</t>
+  </si>
+  <si>
+    <t>MAIL_BCC_F</t>
+  </si>
+  <si>
+    <t>MUSHO_HACCHU_F</t>
+  </si>
+  <si>
+    <t>NOHIN_SEND_YOHI_KBN</t>
+  </si>
+  <si>
+    <t>ORDER_ACCEPT_KBN</t>
+  </si>
+  <si>
+    <t>POISON_KBN</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>PRINT_KBN</t>
+  </si>
+  <si>
+    <t>REST_ARTICLE_KBN</t>
+  </si>
+  <si>
+    <t>S_COST_AMOUNT_KBN</t>
+  </si>
+  <si>
+    <t>SEND_SUP_KBN</t>
+  </si>
+  <si>
+    <t>SHIKAKE_KBN</t>
+  </si>
+  <si>
+    <t>STAN_UNIT_KBN</t>
+  </si>
+  <si>
+    <t>STOCKS_KIND_KBN</t>
+  </si>
+  <si>
+    <t>SUP_KBN</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,6 +1698,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,41 +2087,41 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.75" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.125" customWidth="1"/>
-    <col min="11" max="11" width="135.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139.875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="36"/>
       <c r="E1" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="37"/>
       <c r="H1" s="38"/>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2189,21 +2164,21 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C4" s="16">
-        <f>LEN(B4)</f>
+        <f t="shared" ref="C4:C35" si="1">LEN(B4)</f>
         <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>8</v>
@@ -2211,59 +2186,59 @@
       <c r="G4" s="27">
         <v>1</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="2"/>
       <c r="K4" s="42" t="str">
-        <f t="shared" ref="K4:K35" si="0">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE VALUES ('bunkatsu_mail_f', '部署分割送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K4:K35" si="2">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE VALUES ('BUNKATSU_MAIL_F', '部署分割送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('BUNKATSU_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C5" s="16">
-        <f>LEN(B5)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G5" s="27">
         <v>2</v>
       </c>
       <c r="K5" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('bunkatsu_mail_f', '1', '部門毎', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('BUNKATSU_MAIL_F', '1', '部門毎', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C6" s="16">
-        <f>LEN(B6)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>8</v>
@@ -2272,372 +2247,372 @@
         <v>1</v>
       </c>
       <c r="K6" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('chumon_mail_f', '注文書送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('CHUMON_MAIL_F', '注文書送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('CHUMON_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C7" s="16">
-        <f>LEN(B7)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="K7" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('chumon_mail_f', '1', '発注残', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('CHUMON_MAIL_F', '1', '発注残', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" s="16">
-        <f>LEN(B8)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G8" s="27">
         <v>1</v>
       </c>
       <c r="K8" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('comp_code', '部署', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '10', '生産管理', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('COMP_CODE', '部署', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '10', '生産管理', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C9" s="16">
-        <f>LEN(B9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="G9" s="27">
         <v>2</v>
       </c>
       <c r="K9" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '15', '生管役職', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '15', '生管役職', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C10" s="16">
-        <f>LEN(B10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="G10" s="27">
         <v>3</v>
       </c>
       <c r="K10" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '20', '購買', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '20', '購買', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" s="16">
-        <f>LEN(B11)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G11" s="27">
         <v>4</v>
       </c>
       <c r="K11" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '25', '検査', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '25', '検査', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C12" s="16">
-        <f>LEN(B12)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="G12" s="27">
         <v>5</v>
       </c>
       <c r="K12" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '30', '製造', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '30', '製造', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C13" s="16">
-        <f>LEN(B13)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G13" s="27">
         <v>6</v>
       </c>
       <c r="K13" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '35', '経理', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '35', '経理', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C14" s="16">
-        <f>LEN(B14)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="G14" s="27">
         <v>7</v>
       </c>
       <c r="K14" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '40', '営業', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '40', '営業', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C15" s="16">
-        <f>LEN(B15)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G15" s="27">
         <v>8</v>
       </c>
       <c r="K15" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '50', '生産技術', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '50', '生産技術', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C16" s="16">
-        <f>LEN(B16)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="G16" s="27">
         <v>9</v>
       </c>
       <c r="K16" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '80', 'その他', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '80', 'その他', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C17" s="16">
-        <f>LEN(B17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G17" s="27">
         <v>10</v>
       </c>
       <c r="K17" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '85', '一般役職', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '85', '一般役職', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C18" s="16">
-        <f>LEN(B18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="G18" s="27">
         <v>11</v>
       </c>
       <c r="K18" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('comp_code', '99', 'システム管理', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '99', 'システム管理', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="C19" s="18">
-        <f>LEN(B19)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>9</v>
@@ -2649,24 +2624,24 @@
         <v>1</v>
       </c>
       <c r="K19" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('cost_amount_kbn', '原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('COST_AMOUNT_KBN', '原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="C20" s="18">
-        <f>LEN(B20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>6</v>
@@ -2678,24 +2653,24 @@
         <v>2</v>
       </c>
       <c r="K20" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C21" s="16">
-        <f>LEN(B21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>9</v>
@@ -2707,53 +2682,53 @@
         <v>1</v>
       </c>
       <c r="K21" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('delete_f', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('DELETE_F', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('DELETE_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C22" s="16">
-        <f>LEN(B22)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G22" s="27">
         <v>2</v>
       </c>
       <c r="K22" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_f', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('DELETE_F', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C23" s="16">
-        <f>LEN(B23)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>9</v>
@@ -2767,30 +2742,30 @@
       <c r="H23" s="32"/>
       <c r="I23" s="7"/>
       <c r="K23" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('delete_flag', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('DELETE_FLAG', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('DELETE_FLAG', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C24" s="16">
-        <f>LEN(B24)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G24" s="27">
         <v>2</v>
@@ -2798,24 +2773,24 @@
       <c r="H24" s="32"/>
       <c r="I24" s="7"/>
       <c r="K24" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('delete_flag', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('DELETE_FLAG', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="C25" s="18">
-        <f>LEN(B25)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>9</v>
@@ -2827,24 +2802,24 @@
         <v>1</v>
       </c>
       <c r="K25" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('f_cost_amount_kbn', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('F_COST_AMOUNT_KBN', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="C26" s="18">
-        <f>LEN(B26)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>6</v>
@@ -2856,1625 +2831,1625 @@
         <v>2</v>
       </c>
       <c r="K26" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('f_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C27" s="16">
-        <f>LEN(B27)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
       </c>
       <c r="K27" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('fraction_kbn', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('FRACTION_KBN', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C28" s="16">
-        <f>LEN(B28)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G28" s="27">
         <v>2</v>
       </c>
       <c r="K28" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C29" s="16">
-        <f>LEN(B29)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G29" s="27">
         <v>3</v>
       </c>
       <c r="K29" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('fraction_kbn', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C30" s="16">
-        <f>LEN(B30)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G30" s="27">
         <v>1</v>
       </c>
       <c r="K30" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('gaika_kb', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('GAIKA_KB', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C31" s="16">
-        <f>LEN(B31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
       </c>
       <c r="K31" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C32" s="16">
-        <f>LEN(B32)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G32" s="27">
         <v>3</v>
       </c>
       <c r="K32" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C33" s="16">
-        <f>LEN(B33)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G33" s="27">
         <v>4</v>
       </c>
       <c r="K33" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C34" s="16">
-        <f>LEN(B34)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G34" s="27">
         <v>5</v>
       </c>
       <c r="K34" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('gaika_kb', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C35" s="16">
-        <f>LEN(B35)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G35" s="27">
         <v>1</v>
       </c>
       <c r="K35" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO MST_CODE VALUES ('hingun_kbn', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE VALUES ('HINGUN_KBN', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A36:A67" si="3">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C36" s="16">
-        <f>LEN(B36)</f>
+        <f t="shared" ref="C36:C67" si="4">LEN(B36)</f>
         <v>10</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G36" s="27">
         <v>2</v>
       </c>
       <c r="K36" s="42" t="str">
-        <f t="shared" ref="K36:K67" si="1">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K36:K67" si="5">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C37" s="16">
-        <f>LEN(B37)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G37" s="27">
         <v>3</v>
       </c>
       <c r="K37" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C38" s="16">
-        <f>LEN(B38)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G38" s="27">
         <v>4</v>
       </c>
       <c r="K38" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C39" s="16">
-        <f>LEN(B39)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G39" s="27">
         <v>5</v>
       </c>
       <c r="K39" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C40" s="16">
-        <f>LEN(B40)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G40" s="27">
         <v>6</v>
       </c>
       <c r="K40" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C41" s="16">
-        <f>LEN(B41)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G41" s="27">
         <v>7</v>
       </c>
       <c r="K41" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C42" s="16">
-        <f>LEN(B42)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G42" s="27">
         <v>8</v>
       </c>
       <c r="K42" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C43" s="16">
-        <f>LEN(B43)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G43" s="27">
         <v>9</v>
       </c>
       <c r="K43" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C44" s="16">
-        <f>LEN(B44)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G44" s="27">
         <v>10</v>
       </c>
       <c r="K44" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C45" s="16">
-        <f>LEN(B45)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G45" s="27">
         <v>11</v>
       </c>
       <c r="K45" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C46" s="16">
-        <f>LEN(B46)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G46" s="27">
         <v>12</v>
       </c>
       <c r="K46" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C47" s="16">
-        <f>LEN(B47)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G47" s="27">
         <v>13</v>
       </c>
       <c r="K47" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C48" s="16">
-        <f>LEN(B48)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G48" s="27">
         <v>14</v>
       </c>
       <c r="K48" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C49" s="16">
-        <f>LEN(B49)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G49" s="27">
         <v>15</v>
       </c>
       <c r="K49" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C50" s="16">
-        <f>LEN(B50)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" s="27">
         <v>16</v>
       </c>
       <c r="K50" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C51" s="16">
-        <f>LEN(B51)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G51" s="27">
         <v>17</v>
       </c>
       <c r="K51" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C52" s="16">
-        <f>LEN(B52)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G52" s="27">
         <v>18</v>
       </c>
       <c r="K52" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C53" s="16">
-        <f>LEN(B53)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G53" s="27">
         <v>19</v>
       </c>
       <c r="K53" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C54" s="16">
-        <f>LEN(B54)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G54" s="27">
         <v>20</v>
       </c>
       <c r="K54" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C55" s="16">
-        <f>LEN(B55)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G55" s="27">
         <v>21</v>
       </c>
       <c r="K55" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C56" s="16">
-        <f>LEN(B56)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G56" s="27">
         <v>22</v>
       </c>
       <c r="K56" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C57" s="16">
-        <f>LEN(B57)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G57" s="27">
         <v>23</v>
       </c>
       <c r="K57" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C58" s="16">
-        <f>LEN(B58)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G58" s="27">
         <v>24</v>
       </c>
       <c r="K58" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C59" s="16">
-        <f>LEN(B59)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G59" s="27">
         <v>25</v>
       </c>
       <c r="K59" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C60" s="16">
-        <f>LEN(B60)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G60" s="27">
         <v>26</v>
       </c>
       <c r="K60" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C61" s="16">
-        <f>LEN(B61)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G61" s="27">
         <v>27</v>
       </c>
       <c r="K61" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C62" s="16">
-        <f>LEN(B62)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G62" s="27">
         <v>28</v>
       </c>
       <c r="K62" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C63" s="16">
-        <f>LEN(B63)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G63" s="27">
         <v>29</v>
       </c>
       <c r="K63" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C64" s="16">
-        <f>LEN(B64)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G64" s="27">
         <v>30</v>
       </c>
       <c r="K64" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C65" s="16">
-        <f>LEN(B65)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G65" s="27">
         <v>31</v>
       </c>
       <c r="K65" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C66" s="16">
-        <f>LEN(B66)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G66" s="27">
         <v>32</v>
       </c>
       <c r="K66" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C67" s="16">
-        <f>LEN(B67)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G67" s="27">
         <v>33</v>
       </c>
       <c r="K67" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A68:A99" si="6">ROW()-3</f>
         <v>65</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C68" s="16">
-        <f>LEN(B68)</f>
+        <f t="shared" ref="C68:C99" si="7">LEN(B68)</f>
         <v>10</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G68" s="27">
         <v>34</v>
       </c>
       <c r="K68" s="42" t="str">
-        <f t="shared" ref="K68:K99" si="2">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K68:K99" si="8">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C69" s="16">
-        <f>LEN(B69)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G69" s="27">
         <v>35</v>
       </c>
       <c r="K69" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C70" s="16">
-        <f>LEN(B70)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G70" s="27">
         <v>36</v>
       </c>
       <c r="K70" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C71" s="16">
-        <f>LEN(B71)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G71" s="27">
         <v>37</v>
       </c>
       <c r="K71" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C72" s="16">
-        <f>LEN(B72)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G72" s="27">
         <v>38</v>
       </c>
       <c r="K72" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C73" s="16">
-        <f>LEN(B73)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G73" s="27">
         <v>39</v>
       </c>
       <c r="K73" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C74" s="16">
-        <f>LEN(B74)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G74" s="27">
         <v>40</v>
       </c>
       <c r="K74" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C75" s="16">
-        <f>LEN(B75)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G75" s="27">
         <v>41</v>
       </c>
       <c r="K75" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C76" s="16">
-        <f>LEN(B76)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G76" s="27">
         <v>42</v>
       </c>
       <c r="K76" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C77" s="16">
-        <f>LEN(B77)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G77" s="27">
         <v>43</v>
       </c>
       <c r="K77" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C78" s="16">
-        <f>LEN(B78)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G78" s="27">
         <v>44</v>
       </c>
       <c r="K78" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C79" s="16">
-        <f>LEN(B79)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G79" s="27">
         <v>45</v>
       </c>
       <c r="K79" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C80" s="16">
-        <f>LEN(B80)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G80" s="27">
         <v>46</v>
       </c>
       <c r="K80" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C81" s="16">
-        <f>LEN(B81)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G81" s="27">
         <v>47</v>
       </c>
       <c r="K81" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C82" s="16">
-        <f>LEN(B82)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G82" s="27">
         <v>48</v>
@@ -4482,691 +4457,691 @@
       <c r="H82" s="28"/>
       <c r="I82" s="2"/>
       <c r="K82" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C83" s="16">
-        <f>LEN(B83)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G83" s="27">
         <v>49</v>
       </c>
       <c r="K83" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C84" s="16">
-        <f>LEN(B84)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F84" s="47" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G84" s="27">
         <v>50</v>
       </c>
       <c r="K84" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C85" s="16">
-        <f>LEN(B85)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F85" s="47" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G85" s="27">
         <v>51</v>
       </c>
       <c r="K85" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C86" s="16">
-        <f>LEN(B86)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G86" s="27">
         <v>52</v>
       </c>
       <c r="K86" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C87" s="16">
-        <f>LEN(B87)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G87" s="27">
         <v>53</v>
       </c>
       <c r="K87" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C88" s="16">
-        <f>LEN(B88)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G88" s="27">
         <v>54</v>
       </c>
       <c r="K88" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C89" s="16">
-        <f>LEN(B89)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G89" s="27">
         <v>55</v>
       </c>
       <c r="K89" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C90" s="16">
-        <f>LEN(B90)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G90" s="27">
         <v>56</v>
       </c>
       <c r="K90" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C91" s="16">
-        <f>LEN(B91)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G91" s="27">
         <v>57</v>
       </c>
       <c r="K91" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C92" s="16">
-        <f>LEN(B92)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G92" s="27">
         <v>58</v>
       </c>
       <c r="K92" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C93" s="16">
-        <f>LEN(B93)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G93" s="27">
         <v>59</v>
       </c>
       <c r="K93" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C94" s="16">
-        <f>LEN(B94)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G94" s="27">
         <v>60</v>
       </c>
       <c r="K94" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C95" s="16">
-        <f>LEN(B95)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G95" s="27">
         <v>61</v>
       </c>
       <c r="K95" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C96" s="16">
-        <f>LEN(B96)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G96" s="27">
         <v>62</v>
       </c>
       <c r="K96" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C97" s="16">
-        <f>LEN(B97)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G97" s="27">
         <v>63</v>
       </c>
       <c r="K97" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C98" s="16">
-        <f>LEN(B98)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G98" s="27">
         <v>64</v>
       </c>
       <c r="K98" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C99" s="16">
-        <f>LEN(B99)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G99" s="27">
         <v>65</v>
       </c>
       <c r="K99" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A100:A131" si="9">ROW()-3</f>
         <v>97</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C100" s="16">
-        <f>LEN(B100)</f>
+        <f t="shared" ref="C100:C131" si="10">LEN(B100)</f>
         <v>10</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G100" s="27">
         <v>66</v>
       </c>
       <c r="K100" s="42" t="str">
-        <f t="shared" ref="K100:K131" si="3">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K100:K131" si="11">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C101" s="16">
-        <f>LEN(B101)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G101" s="27">
         <v>67</v>
       </c>
       <c r="K101" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C102" s="16">
-        <f>LEN(B102)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G102" s="27">
         <v>68</v>
       </c>
       <c r="K102" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C103" s="16">
-        <f>LEN(B103)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G103" s="27">
         <v>69</v>
       </c>
       <c r="K103" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C104" s="16">
-        <f>LEN(B104)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G104" s="27">
         <v>70</v>
       </c>
       <c r="K104" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C105" s="16">
-        <f>LEN(B105)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105" s="27">
         <v>71</v>
       </c>
       <c r="K105" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('hingun_kbn', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C106" s="16">
-        <f>LEN(B106)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>9</v>
@@ -5178,24 +5153,24 @@
         <v>1</v>
       </c>
       <c r="K106" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('host_n_kbn', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('HOST_N_KBN', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C107" s="16">
-        <f>LEN(B107)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>6</v>
@@ -5207,433 +5182,433 @@
         <v>2</v>
       </c>
       <c r="K107" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('host_n_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C108" s="16">
-        <f>LEN(B108)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="F108" s="47" t="s">
         <v>12</v>
-      </c>
-      <c r="F108" s="47" t="s">
-        <v>13</v>
       </c>
       <c r="G108" s="27">
         <v>1</v>
       </c>
       <c r="K108" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('item_kbn', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('ITEM_KBN', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C109" s="16">
-        <f>LEN(B109)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="F109" s="47" t="s">
-        <v>15</v>
       </c>
       <c r="G109" s="27">
         <v>2</v>
       </c>
       <c r="K109" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C110" s="16">
-        <f>LEN(B110)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="47" t="s">
         <v>16</v>
-      </c>
-      <c r="F110" s="47" t="s">
-        <v>17</v>
       </c>
       <c r="G110" s="27">
         <v>3</v>
       </c>
       <c r="K110" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C111" s="16">
-        <f>LEN(B111)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="47" t="s">
         <v>18</v>
-      </c>
-      <c r="F111" s="47" t="s">
-        <v>19</v>
       </c>
       <c r="G111" s="27">
         <v>4</v>
       </c>
       <c r="K111" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C112" s="16">
-        <f>LEN(B112)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="47" t="s">
         <v>20</v>
-      </c>
-      <c r="F112" s="47" t="s">
-        <v>21</v>
       </c>
       <c r="G112" s="27">
         <v>5</v>
       </c>
       <c r="K112" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C113" s="16">
-        <f>LEN(B113)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="47" t="s">
         <v>22</v>
-      </c>
-      <c r="F113" s="47" t="s">
-        <v>23</v>
       </c>
       <c r="G113" s="27">
         <v>6</v>
       </c>
       <c r="K113" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C114" s="16">
-        <f>LEN(B114)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="47" t="s">
         <v>24</v>
-      </c>
-      <c r="F114" s="47" t="s">
-        <v>25</v>
       </c>
       <c r="G114" s="27">
         <v>7</v>
       </c>
       <c r="K114" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C115" s="16">
-        <f>LEN(B115)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="47" t="s">
         <v>26</v>
-      </c>
-      <c r="F115" s="47" t="s">
-        <v>27</v>
       </c>
       <c r="G115" s="27">
         <v>8</v>
       </c>
       <c r="K115" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C116" s="16">
-        <f>LEN(B116)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="47" t="s">
         <v>28</v>
-      </c>
-      <c r="F116" s="47" t="s">
-        <v>29</v>
       </c>
       <c r="G116" s="27">
         <v>9</v>
       </c>
       <c r="K116" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C117" s="16">
-        <f>LEN(B117)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E117" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F117" s="47" t="s">
-        <v>31</v>
-      </c>
       <c r="G117" s="27">
         <v>10</v>
       </c>
       <c r="K117" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C118" s="16">
-        <f>LEN(B118)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="47" t="s">
         <v>32</v>
-      </c>
-      <c r="F118" s="47" t="s">
-        <v>33</v>
       </c>
       <c r="G118" s="27">
         <v>11</v>
       </c>
       <c r="K118" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C119" s="16">
-        <f>LEN(B119)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" s="47" t="s">
         <v>34</v>
-      </c>
-      <c r="F119" s="47" t="s">
-        <v>35</v>
       </c>
       <c r="G119" s="27">
         <v>12</v>
       </c>
       <c r="K119" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C120" s="16">
-        <f>LEN(B120)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="47" t="s">
         <v>36</v>
-      </c>
-      <c r="F120" s="47" t="s">
-        <v>37</v>
       </c>
       <c r="G120" s="27">
         <v>13</v>
       </c>
       <c r="K120" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C121" s="16">
-        <f>LEN(B121)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="47" t="s">
         <v>38</v>
-      </c>
-      <c r="F121" s="47" t="s">
-        <v>39</v>
       </c>
       <c r="G121" s="27">
         <v>14</v>
       </c>
       <c r="K121" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('item_kbn', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C122" s="16">
-        <f>LEN(B122)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F122" s="47" t="s">
         <v>8</v>
@@ -5642,114 +5617,114 @@
         <v>1</v>
       </c>
       <c r="K122" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('kenshu_mail_f', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('KENSHU_MAIL_F', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C123" s="16">
-        <f>LEN(B123)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G123" s="27">
         <v>2</v>
       </c>
       <c r="K123" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('kenshu_mail_f', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C124" s="16">
-        <f>LEN(B124)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G124" s="27">
         <v>1</v>
       </c>
       <c r="K124" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('list_output_kbn', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('LIST_OUTPUT_KBN', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C125" s="16">
-        <f>LEN(B125)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E125" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F125" s="47" t="s">
         <v>222</v>
-      </c>
-      <c r="F125" s="47" t="s">
-        <v>240</v>
       </c>
       <c r="G125" s="27">
         <v>2</v>
       </c>
       <c r="K125" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('list_output_kbn', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C126" s="16">
-        <f>LEN(B126)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F126" s="47" t="s">
         <v>8</v>
@@ -5758,53 +5733,53 @@
         <v>1</v>
       </c>
       <c r="K126" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('mail_bcc_f', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('MAIL_BCC_F', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C127" s="16">
-        <f>LEN(B127)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G127" s="27">
         <v>2</v>
       </c>
       <c r="K127" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('mail_bcc_f', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="C128" s="16">
-        <f>LEN(B128)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>9</v>
@@ -5816,53 +5791,53 @@
         <v>1</v>
       </c>
       <c r="K128" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('musho_hacchu_f', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('MUSHO_HACCHU_F', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="C129" s="16">
-        <f>LEN(B129)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G129" s="27">
         <v>2</v>
       </c>
       <c r="K129" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('musho_hacchu_f', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C130" s="16">
-        <f>LEN(B130)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>9</v>
@@ -5874,111 +5849,111 @@
         <v>1</v>
       </c>
       <c r="K130" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE VALUES ('nohin_send_yohi_kbn', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE VALUES ('NOHIN_SEND_YOHI_KBN', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C131" s="16">
-        <f>LEN(B131)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G131" s="27">
         <v>2</v>
       </c>
       <c r="K131" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('nohin_send_yohi_kbn', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="11"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A132:A163" si="12">ROW()-3</f>
         <v>129</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="C132" s="16">
-        <f>LEN(B132)</f>
+        <f t="shared" ref="C132:C163" si="13">LEN(B132)</f>
         <v>16</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G132" s="27">
         <v>1</v>
       </c>
       <c r="K132" s="42" t="str">
-        <f t="shared" ref="K132:K163" si="4">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE VALUES ('order_accept_kbn', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K132:K163" si="14">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE VALUES ('ORDER_ACCEPT_KBN', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="C133" s="16">
-        <f>LEN(B133)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G133" s="27">
         <v>2</v>
       </c>
       <c r="K133" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('order_accept_kbn', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="C134" s="16">
-        <f>LEN(B134)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E134" s="30" t="s">
         <v>9</v>
@@ -5990,169 +5965,169 @@
         <v>1</v>
       </c>
       <c r="K134" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('poison_kbn', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('POISON_KBN', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="C135" s="16">
-        <f>LEN(B135)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G135" s="27">
         <v>2</v>
       </c>
       <c r="K135" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('poison_kbn', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C136" s="16">
-        <f>LEN(B136)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G136" s="27">
         <v>1</v>
       </c>
       <c r="K136" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('position', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('position', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('POSITION', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C137" s="16">
-        <f>LEN(B137)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G137" s="27">
         <v>2</v>
       </c>
       <c r="K137" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C138" s="16">
-        <f>LEN(B138)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G138" s="27">
         <v>3</v>
       </c>
       <c r="K138" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C139" s="16">
-        <f>LEN(B139)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G139" s="27">
         <v>4</v>
       </c>
       <c r="K139" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('position', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C140" s="16">
-        <f>LEN(B140)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>9</v>
@@ -6164,24 +6139,24 @@
         <v>1</v>
       </c>
       <c r="K140" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('print_kbn', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('PRINT_KBN', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C141" s="16">
-        <f>LEN(B141)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>6</v>
@@ -6193,24 +6168,24 @@
         <v>2</v>
       </c>
       <c r="K141" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('print_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="C142" s="16">
-        <f>LEN(B142)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E142" s="30" t="s">
         <v>9</v>
@@ -6222,24 +6197,24 @@
         <v>1</v>
       </c>
       <c r="K142" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('rest_article_kbn', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('REST_ARTICLE_KBN', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="C143" s="16">
-        <f>LEN(B143)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>6</v>
@@ -6251,24 +6226,24 @@
         <v>2</v>
       </c>
       <c r="K143" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('rest_article_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C144" s="18">
-        <f>LEN(B144)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E144" s="30" t="s">
         <v>9</v>
@@ -6280,24 +6255,24 @@
         <v>1</v>
       </c>
       <c r="K144" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('s_cost_amount_kbn', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('S_COST_AMOUNT_KBN', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C145" s="18">
-        <f>LEN(B145)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E145" s="26" t="s">
         <v>6</v>
@@ -6309,24 +6284,24 @@
         <v>2</v>
       </c>
       <c r="K145" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('s_cost_amount_kbn', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C146" s="16">
-        <f>LEN(B146)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>9</v>
@@ -6338,227 +6313,227 @@
         <v>1</v>
       </c>
       <c r="K146" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('send_sup_kbn', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('SEND_SUP_KBN', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C147" s="16">
-        <f>LEN(B147)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G147" s="27">
         <v>2</v>
       </c>
       <c r="K147" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('send_sup_kbn', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="B148" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" s="16">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="16">
-        <f>LEN(B148)</f>
-        <v>11</v>
-      </c>
-      <c r="D148" s="17" t="s">
+      <c r="F148" s="47" t="s">
         <v>45</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F148" s="47" t="s">
-        <v>47</v>
       </c>
       <c r="G148" s="27">
         <v>1</v>
       </c>
       <c r="K148" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('shikake_kbn', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('SHIKAKE_KBN', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C149" s="16">
-        <f>LEN(B149)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G149" s="27">
         <v>2</v>
       </c>
       <c r="K149" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C150" s="16">
-        <f>LEN(B150)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G150" s="27">
         <v>3</v>
       </c>
       <c r="K150" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C151" s="16">
-        <f>LEN(B151)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G151" s="27">
         <v>4</v>
       </c>
       <c r="K151" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C152" s="16">
-        <f>LEN(B152)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G152" s="27">
         <v>5</v>
       </c>
       <c r="K152" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C153" s="16">
-        <f>LEN(B153)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E153" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F153" s="48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G153" s="27">
         <v>6</v>
       </c>
       <c r="K153" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('shikake_kbn', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="C154" s="16">
-        <f>LEN(B154)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E154" s="30" t="s">
         <v>9</v>
@@ -6570,269 +6545,269 @@
         <v>1</v>
       </c>
       <c r="K154" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('stan_unit_kbn', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('STAN_UNIT_KBN', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="C155" s="16">
-        <f>LEN(B155)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E155" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G155" s="27">
         <v>2</v>
       </c>
       <c r="K155" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stan_unit_kbn', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="C156" s="16">
-        <f>LEN(B156)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E156" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="47" t="s">
         <v>12</v>
-      </c>
-      <c r="F156" s="47" t="s">
-        <v>13</v>
       </c>
       <c r="G156" s="27">
         <v>1</v>
       </c>
       <c r="K156" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('stocks_kind_kbn', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('STOCKS_KIND_KBN', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="C157" s="16">
-        <f>LEN(B157)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G157" s="27">
         <v>2</v>
       </c>
       <c r="K157" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="C158" s="16">
-        <f>LEN(B158)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E158" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="47" t="s">
         <v>16</v>
-      </c>
-      <c r="F158" s="47" t="s">
-        <v>17</v>
       </c>
       <c r="G158" s="27">
         <v>3</v>
       </c>
       <c r="K158" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="C159" s="16">
-        <f>LEN(B159)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F159" s="47" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G159" s="27">
         <v>4</v>
       </c>
       <c r="K159" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="C160" s="16">
-        <f>LEN(B160)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F160" s="47" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G160" s="27">
         <v>5</v>
       </c>
       <c r="K160" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('stocks_kind_kbn', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="C161" s="16">
-        <f>LEN(B161)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="47" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G161" s="27">
         <v>1</v>
       </c>
       <c r="K161" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE VALUES ('sup_kbn', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE VALUES ('SUP_KBN', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="C162" s="16">
-        <f>LEN(B162)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F162" s="47" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G162" s="27">
         <v>2</v>
       </c>
       <c r="K162" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
-        <f>ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="C163" s="16">
-        <f>LEN(B163)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F163" s="47" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G163" s="27">
         <v>3</v>
       </c>
       <c r="K163" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('sup_kbn', '2', '両方', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '2', '両方', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
   </sheetData>

--- a/knps-com/src/main/schema/コード定義.xlsx
+++ b/knps-com/src/main/schema/コード定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\emarfkrow\knps-com\src\main\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719F9EA-1094-4671-8595-A825BE2A9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C93B28-5B39-4034-B0F1-8EF3B9C1A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA0FF0E5-5DFD-4D24-8D00-4FE6FC562749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="298">
   <si>
     <t>コード名称</t>
     <rPh sb="3" eb="5">
@@ -1222,6 +1222,10 @@
   </si>
   <si>
     <t>SUP_KBN</t>
+  </si>
+  <si>
+    <t>DLTFLG</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2083,17 +2087,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B857A-33D2-4FE4-85AC-E39AFEA0E4F0}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
@@ -2148,7 +2152,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="K2" s="40" t="str">
+        <f>"DELETE FROM "&amp;B1&amp;"; DELETE FROM "&amp;E1&amp;";"</f>
+        <v>DELETE FROM MST_CODE; DELETE FROM MST_CODE_VALUE;</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2164,14 +2171,14 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="16">
-        <f t="shared" ref="C4:C35" si="1">LEN(B4)</f>
+        <f>LEN(B4)</f>
         <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2189,20 +2196,20 @@
       <c r="H4" s="50"/>
       <c r="I4" s="2"/>
       <c r="K4" s="42" t="str">
-        <f t="shared" ref="K4:K35" si="2">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <f t="shared" ref="K4:K35" si="0">IF(OR(B4="",B4=B3),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;D4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E4="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B4&amp;"', '"&amp;E4&amp;"', '"&amp;F4&amp;"', "&amp;G4&amp;", '"&amp;H4&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
         <v>INSERT INTO MST_CODE VALUES ('BUNKATSU_MAIL_F', '部署分割送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('BUNKATSU_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B5)</f>
         <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2218,20 +2225,20 @@
         <v>2</v>
       </c>
       <c r="K5" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('BUNKATSU_MAIL_F', '1', '部門毎', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C6" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B6)</f>
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -2247,20 +2254,20 @@
         <v>1</v>
       </c>
       <c r="K6" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('CHUMON_MAIL_F', '注文書送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('CHUMON_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B7)</f>
         <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2276,20 +2283,20 @@
         <v>2</v>
       </c>
       <c r="K7" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('CHUMON_MAIL_F', '1', '発注残', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B8)</f>
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2305,20 +2312,20 @@
         <v>1</v>
       </c>
       <c r="K8" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('COMP_CODE', '部署', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '10', '生産管理', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B9)</f>
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2334,20 +2341,20 @@
         <v>2</v>
       </c>
       <c r="K9" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '15', '生管役職', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B10)</f>
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2363,20 +2370,20 @@
         <v>3</v>
       </c>
       <c r="K10" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '20', '購買', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B11)</f>
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2392,20 +2399,20 @@
         <v>4</v>
       </c>
       <c r="K11" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '25', '検査', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C12" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B12)</f>
         <v>9</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2421,20 +2428,20 @@
         <v>5</v>
       </c>
       <c r="K12" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '30', '製造', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B13)</f>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -2450,20 +2457,20 @@
         <v>6</v>
       </c>
       <c r="K13" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '35', '経理', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B14)</f>
         <v>9</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -2479,20 +2486,20 @@
         <v>7</v>
       </c>
       <c r="K14" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '40', '営業', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C15" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B15)</f>
         <v>9</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2508,20 +2515,20 @@
         <v>8</v>
       </c>
       <c r="K15" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '50', '生産技術', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B16)</f>
         <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2537,20 +2544,20 @@
         <v>9</v>
       </c>
       <c r="K16" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '80', 'その他', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B17)</f>
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2566,20 +2573,20 @@
         <v>10</v>
       </c>
       <c r="K17" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '85', '一般役職', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C18" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B18)</f>
         <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2595,20 +2602,20 @@
         <v>11</v>
       </c>
       <c r="K18" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COMP_CODE', '99', 'システム管理', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C19" s="18">
-        <f t="shared" si="1"/>
+        <f>LEN(B19)</f>
         <v>15</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2624,20 +2631,20 @@
         <v>1</v>
       </c>
       <c r="K19" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('COST_AMOUNT_KBN', '原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C20" s="18">
-        <f t="shared" si="1"/>
+        <f>LEN(B20)</f>
         <v>15</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2653,20 +2660,20 @@
         <v>2</v>
       </c>
       <c r="K20" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>273</v>
       </c>
       <c r="C21" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B21)</f>
         <v>8</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -2682,20 +2689,20 @@
         <v>1</v>
       </c>
       <c r="K21" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('DELETE_F', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('DELETE_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>273</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B22)</f>
         <v>8</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -2711,20 +2718,20 @@
         <v>2</v>
       </c>
       <c r="K22" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('DELETE_F', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B23)</f>
         <v>11</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2742,20 +2749,20 @@
       <c r="H23" s="32"/>
       <c r="I23" s="7"/>
       <c r="K23" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE VALUES ('DELETE_FLAG', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('DELETE_FLAG', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B24)</f>
         <v>11</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2773,3016 +2780,3016 @@
       <c r="H24" s="32"/>
       <c r="I24" s="7"/>
       <c r="K24" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('DELETE_FLAG', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
+        <f>ROW()-3</f>
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="16">
+        <f>LEN(B25)</f>
+        <v>6</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="27">
+        <v>1</v>
+      </c>
+      <c r="K25" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="31">
-        <v>1</v>
-      </c>
-      <c r="K25" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('F_COST_AMOUNT_KBN', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <v>INSERT INTO MST_CODE VALUES ('DLTFLG', '削除フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('DLTFLG', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>57</v>
+      <c r="B26" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="16">
+        <f>LEN(B26)</f>
+        <v>6</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="G26" s="27">
         <v>2</v>
       </c>
       <c r="K26" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('DLTFLG', '1', '削除', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
+        <f>ROW()-3</f>
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="18">
+        <f>LEN(B27)</f>
+        <v>17</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="K27" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('FRACTION_KBN', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <v>INSERT INTO MST_CODE VALUES ('F_COST_AMOUNT_KBN', '単体一次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>212</v>
+      <c r="B28" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="18">
+        <f>LEN(B28)</f>
+        <v>17</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G28" s="27">
         <v>2</v>
       </c>
       <c r="K28" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('F_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B29)</f>
         <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>212</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G29" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('FRACTION_KBN', '端数処理区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '0', '四捨五入', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
+        <f>ROW()-3</f>
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="16">
+        <f>LEN(B30)</f>
+        <v>12</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2</v>
+      </c>
+      <c r="K30" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="27">
-        <v>1</v>
-      </c>
-      <c r="K30" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('GAIKA_KB', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '1', '切り捨て', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
+        <f>ROW()-3</f>
+        <v>28</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="16">
+        <f>LEN(B31)</f>
+        <v>12</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="27">
+        <v>3</v>
+      </c>
+      <c r="K31" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="27">
-        <v>2</v>
-      </c>
-      <c r="K31" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('FRACTION_KBN', '2', '切り上げ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>277</v>
       </c>
       <c r="C32" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B32)</f>
         <v>8</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G32" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE VALUES ('GAIKA_KB', '外貨区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '1', 'JPY', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>277</v>
       </c>
       <c r="C33" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B33)</f>
         <v>8</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G33" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '2', 'USD', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>277</v>
       </c>
       <c r="C34" s="16">
-        <f t="shared" si="1"/>
+        <f>LEN(B34)</f>
         <v>8</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G34" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '3', '元', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
+        <f>ROW()-3</f>
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="16">
+        <f>LEN(B35)</f>
+        <v>8</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="27">
+        <v>4</v>
+      </c>
+      <c r="K35" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="27">
-        <v>1</v>
-      </c>
-      <c r="K35" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO MST_CODE VALUES ('HINGUN_KBN', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '4', 'EUR', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <f t="shared" ref="A36:A67" si="3">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" s="16">
-        <f t="shared" ref="C36:C67" si="4">LEN(B36)</f>
-        <v>10</v>
+        <f>LEN(B36)</f>
+        <v>8</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="G36" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K36" s="42" t="str">
-        <f t="shared" ref="K36:K67" si="5">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K36:K67" si="1">IF(OR(B36="",B36=B35),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;D36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E36="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B36&amp;"', '"&amp;E36&amp;"', '"&amp;F36&amp;"', "&amp;G36&amp;", '"&amp;H36&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('GAIKA_KB', '5', 'GBP', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B37)</f>
         <v>10</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G37" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE VALUES ('HINGUN_KBN', '品群区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '1', 'ソケットレンチ', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B38)</f>
         <v>10</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G38" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K38" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '2', 'ハンドルレンチ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C39" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B39)</f>
         <v>10</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '3', 'プラグレンチ', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C40" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B40)</f>
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G40" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K40" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '4', 'モンキーレンチ', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C41" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B41)</f>
         <v>10</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G41" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K41" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '5', 'その他アジャスタブルレンチ', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B42)</f>
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G42" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K42" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '6', 'めがねレンチ', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B43)</f>
         <v>10</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K43" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '7', 'コンビネーションレンチ', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B44)</f>
         <v>10</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K44" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '8', 'スパナ', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B45)</f>
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G45" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K45" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '9', 'フライヤー', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B46)</f>
         <v>10</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G46" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K46" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '10', 'その他はさみ類', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B47)</f>
         <v>10</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G47" s="27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K47" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '11', '駆動工具', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B48)</f>
         <v>10</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G48" s="27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K48" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '12', '特殊工具', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B49)</f>
         <v>10</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G49" s="27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K49" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '13', 'ＳＳＴ', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B50)</f>
         <v>10</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G50" s="27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K50" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '14', '機器', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C51" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B51)</f>
         <v>10</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G51" s="27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K51" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '15', 'ドライバー', 15, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C52" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B52)</f>
         <v>10</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G52" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K52" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '16', 'ケース', 16, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B53)</f>
         <v>10</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G53" s="27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K53" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '17', '主要材料', 17, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B54)</f>
         <v>10</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G54" s="27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K54" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '18', 'その他主要材料', 18, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B55)</f>
         <v>10</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G55" s="27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K55" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '19', 'ピン', 19, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B56)</f>
         <v>10</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G56" s="27">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K56" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '20', 'ボール', 20, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C57" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B57)</f>
         <v>10</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G57" s="27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K57" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '21', 'ビス', 21, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B58)</f>
         <v>10</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G58" s="27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K58" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '22', 'その他買入部品', 22, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B59)</f>
         <v>10</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G59" s="27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K59" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '23', '薬品', 23, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B60)</f>
         <v>10</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G60" s="27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K60" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '24', 'ニッケルチップ', 24, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B61)</f>
         <v>10</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G61" s="27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K61" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '25', 'チップ', 25, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C62" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B62)</f>
         <v>10</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G62" s="27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K62" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '26', 'その他補助材料', 26, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C63" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B63)</f>
         <v>10</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G63" s="27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K63" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '27', '定額計上品　電解液', 27, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>61</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B64)</f>
         <v>10</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G64" s="27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K64" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '28', '冷間冶工具', 28, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B65)</f>
         <v>10</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G65" s="27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K65" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '29', '熱間冶工具', 29, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B66)</f>
         <v>10</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G66" s="27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K66" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '30', '刻印', 30, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>64</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="4"/>
+        <f>LEN(B67)</f>
         <v>10</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G67" s="27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K67" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '31', 'ブローチ', 31, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <f t="shared" ref="A68:A99" si="6">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>65</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" ref="C68:C99" si="7">LEN(B68)</f>
+        <f>LEN(B68)</f>
         <v>10</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G68" s="27">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K68" s="42" t="str">
-        <f t="shared" ref="K68:K99" si="8">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K68:K99" si="2">IF(OR(B68="",B68=B67),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;D68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E68="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B68&amp;"', '"&amp;E68&amp;"', '"&amp;F68&amp;"', "&amp;G68&amp;", '"&amp;H68&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '32', 'パンチ及び冶工具', 32, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B69)</f>
         <v>10</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G69" s="27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K69" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '33', 'カッター', 33, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B70)</f>
         <v>10</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G70" s="27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K70" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '34', '北陸ＫＴＣ預け品', 34, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B71)</f>
         <v>10</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G71" s="27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K71" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '35', 'その他消耗工具', 35, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>69</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B72)</f>
         <v>10</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G72" s="27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K72" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '36', '定額計上品　ドリル', 36, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>70</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B73)</f>
         <v>10</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G73" s="27">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K73" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '37', '定額計上品　エンドミル・リーマ', 37, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B74)</f>
         <v>10</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G74" s="27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K74" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '38', '定額計上品　タップ・ダイス', 38, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>72</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B75)</f>
         <v>10</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G75" s="27">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K75" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '39', '定額計上品　ヤスリ', 39, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C76" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B76)</f>
         <v>10</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G76" s="27">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K76" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '40', '定額計上品　バイト・チップ', 40, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>74</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C77" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B77)</f>
         <v>10</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G77" s="27">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '41', '定額計上品　チェザー', 41, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>75</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C78" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B78)</f>
         <v>10</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G78" s="27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K78" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '42', '定額計上品　消耗工具', 42, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>76</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C79" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B79)</f>
         <v>10</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G79" s="27">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '43', 'ペーパー', 43, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>77</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C80" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B80)</f>
         <v>10</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G80" s="27">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K80" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '44', 'その他消耗品', 44, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>78</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C81" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B81)</f>
         <v>10</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G81" s="27">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '45', '定額計上品　消耗品', 45, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C82" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B82)</f>
         <v>10</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G82" s="27">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="2"/>
       <c r="K82" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '46', '定額計上品　油類・塗装', 46, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>80</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C83" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B83)</f>
         <v>10</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G83" s="27">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K83" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '47', '定額計上品　砥石', 47, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>81</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C84" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B84)</f>
         <v>10</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F84" s="47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G84" s="27">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K84" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '48', '定額計上品　ダンボール', 48, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>82</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C85" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B85)</f>
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F85" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G85" s="27">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '49', '定額計上品　ガムテープ', 49, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>83</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C86" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B86)</f>
         <v>10</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G86" s="27">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K86" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '50', '定額計上品　ひも', 50, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>84</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C87" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B87)</f>
         <v>10</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G87" s="27">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K87" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '51', '定額計上品　ブリスター', 51, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>85</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C88" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B88)</f>
         <v>10</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G88" s="27">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K88" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '52', '定額計上品　化粧ケース', 52, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>86</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C89" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B89)</f>
         <v>10</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G89" s="27">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K89" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '53', '定額計上品　その他荷造費扱い品', 53, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>87</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C90" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B90)</f>
         <v>10</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G90" s="27">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K90" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '54', '灯油', 54, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>88</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C91" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B91)</f>
         <v>10</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G91" s="27">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K91" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '55', '重油', 55, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>89</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C92" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B92)</f>
         <v>10</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G92" s="27">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K92" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '56', 'ガス', 56, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>90</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C93" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B93)</f>
         <v>10</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G93" s="27">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K93" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '57', 'その他燃料', 57, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>91</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C94" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B94)</f>
         <v>10</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G94" s="27">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K94" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '58', '修繕用品', 58, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>92</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B95)</f>
         <v>10</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G95" s="27">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K95" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '59', '定額計上品　修繕用品', 59, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C96" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B96)</f>
         <v>10</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G96" s="27">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K96" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '60', 'その他消耗材', 60, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>94</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C97" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B97)</f>
         <v>10</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G97" s="27">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K97" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '61', '電気部品', 61, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C98" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B98)</f>
         <v>10</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G98" s="27">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K98" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '62', '金型', 62, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <f t="shared" si="6"/>
+        <f>ROW()-3</f>
         <v>96</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C99" s="16">
-        <f t="shared" si="7"/>
+        <f>LEN(B99)</f>
         <v>10</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G99" s="27">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K99" s="42" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '63', '工場雑費扱い品', 63, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
-        <f t="shared" ref="A100:A131" si="9">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>97</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C100" s="16">
-        <f t="shared" ref="C100:C131" si="10">LEN(B100)</f>
+        <f>LEN(B100)</f>
         <v>10</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G100" s="27">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K100" s="42" t="str">
-        <f t="shared" ref="K100:K131" si="11">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K100:K131" si="3">IF(OR(B100="",B100=B99),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;D100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E100="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B100&amp;"', '"&amp;E100&amp;"', '"&amp;F100&amp;"', "&amp;G100&amp;", '"&amp;H100&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '64', '事務消耗品', 64, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>98</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C101" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B101)</f>
         <v>10</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G101" s="27">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K101" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '65', 'テレホンカード', 65, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>99</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C102" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B102)</f>
         <v>10</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G102" s="27">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K102" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '66', '販売奨励費扱い品', 66, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>100</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C103" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B103)</f>
         <v>10</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G103" s="27">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K103" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '67', '広告宣伝費扱い品', 67, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>101</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C104" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B104)</f>
         <v>10</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G104" s="27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K104" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '68', '定額計上品　工場雑費扱い品', 68, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>102</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C105" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B105)</f>
         <v>10</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="G105" s="27">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K105" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '69', '定額計上品　福利厚生費扱い品', 69, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>103</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B106)</f>
         <v>10</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="G106" s="27">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K106" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('HOST_N_KBN', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '70', '定額計上品　中国金型', 70, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C107" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B107)</f>
         <v>10</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G107" s="27">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="K107" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HINGUN_KBN', '71', 'アフター用部品', 71, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C108" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B108)</f>
+        <v>10</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="47" t="s">
         <v>8</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="47" t="s">
-        <v>12</v>
       </c>
       <c r="G108" s="27">
         <v>1</v>
       </c>
       <c r="K108" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('ITEM_KBN', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('HOST_N_KBN', 'ホスト入庫区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="16">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>LEN(B109)</f>
+        <v>10</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G109" s="27">
         <v>2</v>
       </c>
       <c r="K109" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('HOST_N_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C110" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B110)</f>
         <v>8</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G110" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('ITEM_KBN', '品目区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B111)</f>
         <v>8</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G111" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K111" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '2', '仕入商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>109</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B112)</f>
         <v>8</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G112" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K112" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B113)</f>
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G113" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K113" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '4', '買入部品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>111</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B114)</f>
         <v>8</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G114" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K114" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '5', '半製品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B115)</f>
         <v>8</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G115" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K115" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '6', '購入部品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>113</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B116)</f>
         <v>8</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G116" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K116" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '7', '補助材料', 7, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>114</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B117)</f>
         <v>8</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G117" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K117" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '8', '消耗工具', 8, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>115</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B118)</f>
         <v>8</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G118" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K118" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '9', '消耗品', 9, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>116</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B119)</f>
         <v>8</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G119" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K119" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '10', '梱包資材', 10, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>117</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C120" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B120)</f>
         <v>8</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G120" s="27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K120" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '11', '燃料', 11, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>118</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C121" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B121)</f>
         <v>8</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G121" s="27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K121" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '12', '修繕材', 12, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>119</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C122" s="16">
-        <f t="shared" si="10"/>
+        <f>LEN(B122)</f>
+        <v>8</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" s="27">
         <v>13</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F122" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="27">
-        <v>1</v>
-      </c>
       <c r="K122" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('KENSHU_MAIL_F', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '13', 'その他', 13, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C123" s="16">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f>LEN(B123)</f>
+        <v>8</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="G123" s="27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K123" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ITEM_KBN', '14', 'アフター用部品', 14, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>121</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C124" s="16">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f>LEN(B124)</f>
+        <v>13</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>213</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="G124" s="27">
         <v>1</v>
       </c>
       <c r="K124" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('LIST_OUTPUT_KBN', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('KENSHU_MAIL_F', '検収リスト送信フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C125" s="16">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f>LEN(B125)</f>
+        <v>13</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G125" s="27">
         <v>2</v>
       </c>
       <c r="K125" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('KENSHU_MAIL_F', '1', '検収リ', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>123</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C126" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>LEN(B126)</f>
+        <v>15</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>213</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="G126" s="27">
         <v>1</v>
       </c>
       <c r="K126" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('MAIL_BCC_F', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('LIST_OUTPUT_KBN', '取引先別集計リスト発行区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '0', '品番集約', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C127" s="16">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>LEN(B127)</f>
+        <v>15</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G127" s="27">
         <v>2</v>
       </c>
       <c r="K127" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('LIST_OUTPUT_KBN', '1', '品番明細', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C128" s="16">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f>LEN(B128)</f>
+        <v>10</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="F128" s="47" t="s">
         <v>8</v>
@@ -5791,53 +5798,53 @@
         <v>1</v>
       </c>
       <c r="K128" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('MUSHO_HACCHU_F', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('MAIL_BCC_F', 'メールBCCフラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C129" s="16">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f>LEN(B129)</f>
+        <v>10</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="G129" s="27">
         <v>2</v>
       </c>
       <c r="K129" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('MAIL_BCC_F', '1', 'BCC', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>127</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C130" s="16">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f>LEN(B130)</f>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>9</v>
@@ -5849,372 +5856,372 @@
         <v>1</v>
       </c>
       <c r="K130" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE VALUES ('NOHIN_SEND_YOHI_KBN', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE VALUES ('MUSHO_HACCHU_F', '無償発注フラグ', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
-        <f t="shared" si="9"/>
+        <f>ROW()-3</f>
         <v>128</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C131" s="16">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f>LEN(B131)</f>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="G131" s="27">
         <v>2</v>
       </c>
       <c r="K131" s="42" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('MUSHO_HACCHU_F', '1', '無償発注', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
-        <f t="shared" ref="A132:A163" si="12">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>129</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C132" s="16">
-        <f t="shared" ref="C132:C163" si="13">LEN(B132)</f>
-        <v>16</v>
+        <f>LEN(B132)</f>
+        <v>19</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="G132" s="27">
         <v>1</v>
       </c>
       <c r="K132" s="42" t="str">
-        <f t="shared" ref="K132:K163" si="14">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
-        <v>INSERT INTO MST_CODE VALUES ('ORDER_ACCEPT_KBN', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" ref="K132:K165" si="4">IF(OR(B132="",B132=B131),"","INSERT INTO "&amp;B$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;D132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")&amp;IF(E132="","","INSERT INTO "&amp;E$1&amp;" VALUES ('"&amp;B132&amp;"', '"&amp;E132&amp;"', '"&amp;F132&amp;"', "&amp;G132&amp;", '"&amp;H132&amp;"', SYSDATE, SYSDATE, 'initdata', 'initdata');")</f>
+        <v>INSERT INTO MST_CODE VALUES ('NOHIN_SEND_YOHI_KBN', '納品書出力要否', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C133" s="16">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f>LEN(B133)</f>
+        <v>19</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G133" s="27">
         <v>2</v>
       </c>
       <c r="K133" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('NOHIN_SEND_YOHI_KBN', '1', '納品書を出力する', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>131</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C134" s="16">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>LEN(B134)</f>
+        <v>16</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" s="31">
+        <v>217</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F134" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="G134" s="27">
         <v>1</v>
       </c>
       <c r="K134" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('POISON_KBN', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('ORDER_ACCEPT_KBN', '注文書扱い区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '0', '電子取合いなし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>132</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C135" s="16">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>LEN(B135)</f>
+        <v>16</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="G135" s="27">
         <v>2</v>
       </c>
       <c r="K135" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('ORDER_ACCEPT_KBN', '1', '電子取合いあり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>133</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C136" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B136)</f>
+        <v>10</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F136" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G136" s="27">
+      <c r="G136" s="31">
         <v>1</v>
       </c>
       <c r="K136" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('POSITION', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('POISON_KBN', '劇毒区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C137" s="16">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f>LEN(B137)</f>
+        <v>10</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="G137" s="27">
         <v>2</v>
       </c>
       <c r="K137" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POISON_KBN', '1', '劇毒', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>135</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C138" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B138)</f>
         <v>8</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G138" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K138" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('POSITION', 'ポジション', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '0', '一般', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>136</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C139" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B139)</f>
         <v>8</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G139" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K139" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '1', '１', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>137</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" s="16">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f>LEN(B140)</f>
+        <v>8</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="G140" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K140" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('PRINT_KBN', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '2', '２', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>138</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C141" s="16">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f>LEN(B141)</f>
+        <v>8</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="G141" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K141" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('POSITION', '3', '３', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>139</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C142" s="16">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f>LEN(B142)</f>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="48" t="s">
+      <c r="F142" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="31">
+      <c r="G142" s="27">
         <v>1</v>
       </c>
       <c r="K142" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('REST_ARTICLE_KBN', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('PRINT_KBN', '印刷区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>140</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C143" s="16">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f>LEN(B143)</f>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>6</v>
@@ -6226,24 +6233,24 @@
         <v>2</v>
       </c>
       <c r="K143" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('PRINT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>141</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" s="18">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>58</v>
+      <c r="B144" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="16">
+        <f>LEN(B144)</f>
+        <v>16</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E144" s="30" t="s">
         <v>9</v>
@@ -6255,24 +6262,24 @@
         <v>1</v>
       </c>
       <c r="K144" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('S_COST_AMOUNT_KBN', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('REST_ARTICLE_KBN', '残品在庫管理有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>142</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" s="18">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>58</v>
+      <c r="B145" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" s="16">
+        <f>LEN(B145)</f>
+        <v>16</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E145" s="26" t="s">
         <v>6</v>
@@ -6284,537 +6291,599 @@
         <v>2</v>
       </c>
       <c r="K145" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('REST_ARTICLE_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>143</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" s="16">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E146" s="26" t="s">
+      <c r="B146" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="18">
+        <f>LEN(B146)</f>
+        <v>17</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E146" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="47" t="s">
+      <c r="F146" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G146" s="31">
         <v>1</v>
       </c>
       <c r="K146" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('SEND_SUP_KBN', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('S_COST_AMOUNT_KBN', '単体二次原価積上計算有無', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>144</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C147" s="16">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>223</v>
+      <c r="B147" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="18">
+        <f>LEN(B147)</f>
+        <v>17</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="G147" s="27">
         <v>2</v>
       </c>
       <c r="K147" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('S_COST_AMOUNT_KBN', '1', 'あり', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>145</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C148" s="16">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f>LEN(B148)</f>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G148" s="27">
         <v>1</v>
       </c>
       <c r="K148" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('SHIKAKE_KBN', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('SEND_SUP_KBN', '送付先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>146</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C149" s="16">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f>LEN(B149)</f>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="G149" s="27">
         <v>2</v>
       </c>
       <c r="K149" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SEND_SUP_KBN', '1', '工場と同じ場所に送る', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>147</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C150" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B150)</f>
         <v>11</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G150" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K150" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('SHIKAKE_KBN', '仕掛区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', '0', '非在庫対応品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C151" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B151)</f>
         <v>11</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G151" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K151" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'A', 'OEM かんばん品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>149</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C152" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B152)</f>
         <v>11</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G152" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K152" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'B', 'OEM 計画品', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>150</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C153" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B153)</f>
         <v>11</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E153" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="48" t="s">
-        <v>55</v>
+      <c r="E153" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="G153" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K153" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'C', 'OEM 非在庫', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>151</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C154" s="16">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f>LEN(B154)</f>
+        <v>11</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" s="31">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G154" s="27">
+        <v>5</v>
       </c>
       <c r="K154" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('STAN_UNIT_KBN', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'D', '市販 計画品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>152</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C155" s="16">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f>LEN(B155)</f>
+        <v>11</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E155" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" s="27">
         <v>6</v>
       </c>
-      <c r="F155" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="G155" s="27">
-        <v>2</v>
-      </c>
       <c r="K155" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SHIKAKE_KBN', 'E', '市販 かんばん品', 6, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>153</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C156" s="16">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f>LEN(B156)</f>
+        <v>13</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="27">
+        <v>204</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="31">
         <v>1</v>
       </c>
       <c r="K156" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('STOCKS_KIND_KBN', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('STAN_UNIT_KBN', '標準ユニット区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '0', 'なし', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C157" s="16">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f>LEN(B157)</f>
+        <v>13</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G157" s="27">
         <v>2</v>
       </c>
       <c r="K157" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STAN_UNIT_KBN', '1', '基準', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>155</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C158" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B158)</f>
         <v>15</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F158" s="47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G158" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K158" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('STOCKS_KIND_KBN', '在庫種別区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '1', '製品', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>156</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C159" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B159)</f>
         <v>15</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F159" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G159" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K159" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '2', '商品', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>157</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C160" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B160)</f>
         <v>15</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F160" s="47" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="G160" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K160" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '3', '原材料', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>158</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C161" s="16">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f>LEN(B161)</f>
+        <v>15</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F161" s="47" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G161" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K161" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE VALUES ('SUP_KBN', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '4', '仕掛品', 4, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>159</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C162" s="16">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f>LEN(B162)</f>
+        <v>15</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="F162" s="47" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G162" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K162" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('STOCKS_KIND_KBN', '5', '貯蓄品', 5, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
-        <f t="shared" si="12"/>
+        <f>ROW()-3</f>
         <v>160</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C163" s="16">
-        <f t="shared" si="13"/>
+        <f>LEN(B163)</f>
         <v>7</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E163" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G163" s="27">
+        <v>1</v>
+      </c>
+      <c r="K163" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE VALUES ('SUP_KBN', '取引先区分', SYSDATE, SYSDATE, 'initdata', 'initdata');INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '0', '加工', 1, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
+        <f>ROW()-3</f>
+        <v>161</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C164" s="16">
+        <f>LEN(B164)</f>
+        <v>7</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F164" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="G164" s="27">
+        <v>2</v>
+      </c>
+      <c r="H164" s="32"/>
+      <c r="I164" s="7"/>
+      <c r="K164" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '1', '仕入', 2, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A165" s="2">
+        <f>ROW()-3</f>
+        <v>162</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" s="16">
+        <f>LEN(B165)</f>
+        <v>7</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F163" s="47" t="s">
+      <c r="F165" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="G163" s="27">
+      <c r="G165" s="27">
         <v>3</v>
       </c>
-      <c r="K163" s="42" t="str">
-        <f t="shared" si="14"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="7"/>
+      <c r="K165" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>INSERT INTO MST_CODE_VALUE VALUES ('SUP_KBN', '2', '両方', 3, '', SYSDATE, SYSDATE, 'initdata', 'initdata');</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:K3" xr:uid="{BAE1F28F-841F-44B7-B025-5C8CFD2708E4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G163">
-    <sortCondition ref="B4:B163"/>
-    <sortCondition ref="E4:E163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G165">
+    <sortCondition ref="B4:B165"/>
+    <sortCondition ref="E4:E165"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:B23 C1:D23 B24:D104 B123:D161 B164:D1048576">
